--- a/CodeDocumentation/2024 Cresendo.xlsx
+++ b/CodeDocumentation/2024 Cresendo.xlsx
@@ -4,8 +4,10 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Pratice Bot Config" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Button Map" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="NoteManager Tasks" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Comp Bot Config" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Angle Function" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Button Map" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="NoteManager Tasks" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="164">
   <si>
     <t>Note Managment</t>
   </si>
@@ -253,6 +255,33 @@
   </si>
   <si>
     <t>rightClimbedSwitch</t>
+  </si>
+  <si>
+    <t>Digital I/O Rio 0</t>
+  </si>
+  <si>
+    <t>Closed Loop (On Spark Flex)</t>
+  </si>
+  <si>
+    <t>Practice Bot</t>
+  </si>
+  <si>
+    <t>Distance (m)</t>
+  </si>
+  <si>
+    <t>Angle (deg)</t>
+  </si>
+  <si>
+    <t>distance</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>angle</t>
   </si>
   <si>
     <t>Task</t>
@@ -611,7 +640,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -639,10 +668,14 @@
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -677,6 +710,252 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:name/>
+            <c:spPr>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Angle Function'!$D$9:$D$17</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Angle Function'!$E$9:$E$17</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1810185014"/>
+        <c:axId val="541479536"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1810185014"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="541479536"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="541479536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1810185014"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
@@ -686,6 +965,40 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>904875</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6048375" cy="3733800"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name="Chart 1" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -6498,298 +6811,5588 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="24.38"/>
-    <col customWidth="1" min="2" max="2" width="18.75"/>
-    <col customWidth="1" min="3" max="3" width="35.88"/>
+    <col customWidth="1" min="1" max="1" width="11.75"/>
+    <col customWidth="1" min="2" max="2" width="13.75"/>
+    <col customWidth="1" min="3" max="3" width="11.75"/>
+    <col customWidth="1" min="4" max="4" width="14.0"/>
+    <col customWidth="1" min="5" max="5" width="11.13"/>
+    <col customWidth="1" min="6" max="7" width="29.38"/>
+    <col customWidth="1" min="8" max="8" width="11.75"/>
+    <col customWidth="1" min="9" max="9" width="17.63"/>
+    <col customWidth="1" min="10" max="10" width="20.75"/>
+    <col customWidth="1" min="11" max="11" width="18.25"/>
+    <col customWidth="1" min="12" max="12" width="14.0"/>
+    <col customWidth="1" min="13" max="13" width="11.75"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4"/>
+      <c r="I3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4">
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="8">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="7">
+        <v>19.0</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="8">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7">
+        <v>6.0</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="8">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="7">
+        <v>7.0</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="L8" s="8">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="8">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="8">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="9">
+        <v>17.0</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>91</v>
+      <c r="G11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="8">
+        <v>7.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>84</v>
-      </c>
+      <c r="B12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="9">
+        <v>16.0</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L12" s="10"/>
     </row>
     <row r="13">
-      <c r="A13" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>84</v>
-      </c>
+      <c r="B13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L13" s="10"/>
     </row>
     <row r="14">
-      <c r="A14" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>84</v>
-      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="I14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L14" s="10"/>
     </row>
     <row r="15">
-      <c r="A15" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>84</v>
-      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="I15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L15" s="10"/>
     </row>
     <row r="16">
-      <c r="A16" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>84</v>
-      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
     </row>
     <row r="17">
-      <c r="A17" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>84</v>
-      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>84</v>
-      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
     </row>
     <row r="19">
-      <c r="A19" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>84</v>
-      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>84</v>
-      </c>
+      <c r="B20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="4"/>
+      <c r="I20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="4"/>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>91</v>
+      <c r="B21" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>93</v>
+      <c r="B22" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="7">
+        <v>12.0</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K22" s="7">
+        <v>11.0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>116</v>
+      <c r="B23" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K23" s="7">
+        <v>13.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>114</v>
+      <c r="B24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="7">
+        <v>8.0</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K24" s="7">
+        <v>15.0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>124</v>
+      <c r="B25" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="7">
+        <v>14.0</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K25" s="7">
+        <v>9.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>110</v>
-      </c>
+      <c r="B26" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="9">
+        <v>13.0</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="7">
+        <v>11.0</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="9">
+        <v>9.0</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="9">
+        <v>15.0</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31">
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32">
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33">
+      <c r="B33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="4"/>
+      <c r="I33" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J33" s="3"/>
+      <c r="K33" s="4"/>
+    </row>
+    <row r="34">
+      <c r="B34" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="7">
+        <v>18.0</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40">
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41">
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42">
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43">
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44">
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45">
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46">
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47">
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48">
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49">
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50">
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51">
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52">
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53">
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54">
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55">
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56">
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57">
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58">
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59">
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60">
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61">
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62">
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63">
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64">
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65">
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66">
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67">
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68">
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69">
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70">
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71">
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72">
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73">
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74">
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75">
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76">
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77">
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78">
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+    </row>
+    <row r="79">
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+    </row>
+    <row r="80">
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+    </row>
+    <row r="81">
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82">
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+    </row>
+    <row r="83">
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+    </row>
+    <row r="84">
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+    </row>
+    <row r="85">
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+    </row>
+    <row r="86">
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+    </row>
+    <row r="87">
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+    </row>
+    <row r="88">
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+    </row>
+    <row r="89">
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+    </row>
+    <row r="90">
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+    </row>
+    <row r="91">
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+    </row>
+    <row r="92">
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+    </row>
+    <row r="93">
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+    </row>
+    <row r="94">
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+    </row>
+    <row r="95">
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+    </row>
+    <row r="96">
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+    </row>
+    <row r="97">
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+    </row>
+    <row r="98">
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+    </row>
+    <row r="99">
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+    </row>
+    <row r="100">
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+    </row>
+    <row r="101">
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+    </row>
+    <row r="102">
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+    </row>
+    <row r="103">
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+    </row>
+    <row r="104">
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+    </row>
+    <row r="105">
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+    </row>
+    <row r="106">
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+    </row>
+    <row r="107">
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+    </row>
+    <row r="108">
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+    </row>
+    <row r="109">
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+    </row>
+    <row r="110">
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+    </row>
+    <row r="111">
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+    </row>
+    <row r="112">
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+    </row>
+    <row r="113">
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+    </row>
+    <row r="114">
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+    </row>
+    <row r="115">
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+    </row>
+    <row r="116">
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+    </row>
+    <row r="117">
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+    </row>
+    <row r="118">
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+    </row>
+    <row r="119">
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+    </row>
+    <row r="120">
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+    </row>
+    <row r="121">
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
+    </row>
+    <row r="122">
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
+    </row>
+    <row r="123">
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
+    </row>
+    <row r="124">
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
+    </row>
+    <row r="125">
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+    </row>
+    <row r="126">
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+    </row>
+    <row r="127">
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+      <c r="G127" s="1"/>
+    </row>
+    <row r="128">
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+    </row>
+    <row r="129">
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
+    </row>
+    <row r="130">
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
+    </row>
+    <row r="131">
+      <c r="E131" s="1"/>
+      <c r="F131" s="1"/>
+      <c r="G131" s="1"/>
+    </row>
+    <row r="132">
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+      <c r="G132" s="1"/>
+    </row>
+    <row r="133">
+      <c r="E133" s="1"/>
+      <c r="F133" s="1"/>
+      <c r="G133" s="1"/>
+    </row>
+    <row r="134">
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
+      <c r="G134" s="1"/>
+    </row>
+    <row r="135">
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
+      <c r="G135" s="1"/>
+    </row>
+    <row r="136">
+      <c r="E136" s="1"/>
+      <c r="F136" s="1"/>
+      <c r="G136" s="1"/>
+    </row>
+    <row r="137">
+      <c r="E137" s="1"/>
+      <c r="F137" s="1"/>
+      <c r="G137" s="1"/>
+    </row>
+    <row r="138">
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
+      <c r="G138" s="1"/>
+    </row>
+    <row r="139">
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+      <c r="G139" s="1"/>
+    </row>
+    <row r="140">
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+      <c r="G140" s="1"/>
+    </row>
+    <row r="141">
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
+    </row>
+    <row r="142">
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+    </row>
+    <row r="143">
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+    </row>
+    <row r="144">
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+    </row>
+    <row r="145">
+      <c r="E145" s="1"/>
+      <c r="F145" s="1"/>
+      <c r="G145" s="1"/>
+    </row>
+    <row r="146">
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
+    </row>
+    <row r="147">
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
+    </row>
+    <row r="148">
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+    </row>
+    <row r="149">
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+    </row>
+    <row r="150">
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+    </row>
+    <row r="151">
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+      <c r="G151" s="1"/>
+    </row>
+    <row r="152">
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+      <c r="G152" s="1"/>
+    </row>
+    <row r="153">
+      <c r="E153" s="1"/>
+      <c r="F153" s="1"/>
+      <c r="G153" s="1"/>
+    </row>
+    <row r="154">
+      <c r="E154" s="1"/>
+      <c r="F154" s="1"/>
+      <c r="G154" s="1"/>
+    </row>
+    <row r="155">
+      <c r="E155" s="1"/>
+      <c r="F155" s="1"/>
+      <c r="G155" s="1"/>
+    </row>
+    <row r="156">
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+    </row>
+    <row r="157">
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
+    </row>
+    <row r="158">
+      <c r="E158" s="1"/>
+      <c r="F158" s="1"/>
+      <c r="G158" s="1"/>
+    </row>
+    <row r="159">
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
+      <c r="G159" s="1"/>
+    </row>
+    <row r="160">
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
+      <c r="G160" s="1"/>
+    </row>
+    <row r="161">
+      <c r="E161" s="1"/>
+      <c r="F161" s="1"/>
+      <c r="G161" s="1"/>
+    </row>
+    <row r="162">
+      <c r="E162" s="1"/>
+      <c r="F162" s="1"/>
+      <c r="G162" s="1"/>
+    </row>
+    <row r="163">
+      <c r="E163" s="1"/>
+      <c r="F163" s="1"/>
+      <c r="G163" s="1"/>
+    </row>
+    <row r="164">
+      <c r="E164" s="1"/>
+      <c r="F164" s="1"/>
+      <c r="G164" s="1"/>
+    </row>
+    <row r="165">
+      <c r="E165" s="1"/>
+      <c r="F165" s="1"/>
+      <c r="G165" s="1"/>
+    </row>
+    <row r="166">
+      <c r="E166" s="1"/>
+      <c r="F166" s="1"/>
+      <c r="G166" s="1"/>
+    </row>
+    <row r="167">
+      <c r="E167" s="1"/>
+      <c r="F167" s="1"/>
+      <c r="G167" s="1"/>
+    </row>
+    <row r="168">
+      <c r="E168" s="1"/>
+      <c r="F168" s="1"/>
+      <c r="G168" s="1"/>
+    </row>
+    <row r="169">
+      <c r="E169" s="1"/>
+      <c r="F169" s="1"/>
+      <c r="G169" s="1"/>
+    </row>
+    <row r="170">
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
+      <c r="G170" s="1"/>
+    </row>
+    <row r="171">
+      <c r="E171" s="1"/>
+      <c r="F171" s="1"/>
+      <c r="G171" s="1"/>
+    </row>
+    <row r="172">
+      <c r="E172" s="1"/>
+      <c r="F172" s="1"/>
+      <c r="G172" s="1"/>
+    </row>
+    <row r="173">
+      <c r="E173" s="1"/>
+      <c r="F173" s="1"/>
+      <c r="G173" s="1"/>
+    </row>
+    <row r="174">
+      <c r="E174" s="1"/>
+      <c r="F174" s="1"/>
+      <c r="G174" s="1"/>
+    </row>
+    <row r="175">
+      <c r="E175" s="1"/>
+      <c r="F175" s="1"/>
+      <c r="G175" s="1"/>
+    </row>
+    <row r="176">
+      <c r="E176" s="1"/>
+      <c r="F176" s="1"/>
+      <c r="G176" s="1"/>
+    </row>
+    <row r="177">
+      <c r="E177" s="1"/>
+      <c r="F177" s="1"/>
+      <c r="G177" s="1"/>
+    </row>
+    <row r="178">
+      <c r="E178" s="1"/>
+      <c r="F178" s="1"/>
+      <c r="G178" s="1"/>
+    </row>
+    <row r="179">
+      <c r="E179" s="1"/>
+      <c r="F179" s="1"/>
+      <c r="G179" s="1"/>
+    </row>
+    <row r="180">
+      <c r="E180" s="1"/>
+      <c r="F180" s="1"/>
+      <c r="G180" s="1"/>
+    </row>
+    <row r="181">
+      <c r="E181" s="1"/>
+      <c r="F181" s="1"/>
+      <c r="G181" s="1"/>
+    </row>
+    <row r="182">
+      <c r="E182" s="1"/>
+      <c r="F182" s="1"/>
+      <c r="G182" s="1"/>
+    </row>
+    <row r="183">
+      <c r="E183" s="1"/>
+      <c r="F183" s="1"/>
+      <c r="G183" s="1"/>
+    </row>
+    <row r="184">
+      <c r="E184" s="1"/>
+      <c r="F184" s="1"/>
+      <c r="G184" s="1"/>
+    </row>
+    <row r="185">
+      <c r="E185" s="1"/>
+      <c r="F185" s="1"/>
+      <c r="G185" s="1"/>
+    </row>
+    <row r="186">
+      <c r="E186" s="1"/>
+      <c r="F186" s="1"/>
+      <c r="G186" s="1"/>
+    </row>
+    <row r="187">
+      <c r="E187" s="1"/>
+      <c r="F187" s="1"/>
+      <c r="G187" s="1"/>
+    </row>
+    <row r="188">
+      <c r="E188" s="1"/>
+      <c r="F188" s="1"/>
+      <c r="G188" s="1"/>
+    </row>
+    <row r="189">
+      <c r="E189" s="1"/>
+      <c r="F189" s="1"/>
+      <c r="G189" s="1"/>
+    </row>
+    <row r="190">
+      <c r="E190" s="1"/>
+      <c r="F190" s="1"/>
+      <c r="G190" s="1"/>
+    </row>
+    <row r="191">
+      <c r="E191" s="1"/>
+      <c r="F191" s="1"/>
+      <c r="G191" s="1"/>
+    </row>
+    <row r="192">
+      <c r="E192" s="1"/>
+      <c r="F192" s="1"/>
+      <c r="G192" s="1"/>
+    </row>
+    <row r="193">
+      <c r="E193" s="1"/>
+      <c r="F193" s="1"/>
+      <c r="G193" s="1"/>
+    </row>
+    <row r="194">
+      <c r="E194" s="1"/>
+      <c r="F194" s="1"/>
+      <c r="G194" s="1"/>
+    </row>
+    <row r="195">
+      <c r="E195" s="1"/>
+      <c r="F195" s="1"/>
+      <c r="G195" s="1"/>
+    </row>
+    <row r="196">
+      <c r="E196" s="1"/>
+      <c r="F196" s="1"/>
+      <c r="G196" s="1"/>
+    </row>
+    <row r="197">
+      <c r="E197" s="1"/>
+      <c r="F197" s="1"/>
+      <c r="G197" s="1"/>
+    </row>
+    <row r="198">
+      <c r="E198" s="1"/>
+      <c r="F198" s="1"/>
+      <c r="G198" s="1"/>
+    </row>
+    <row r="199">
+      <c r="E199" s="1"/>
+      <c r="F199" s="1"/>
+      <c r="G199" s="1"/>
+    </row>
+    <row r="200">
+      <c r="E200" s="1"/>
+      <c r="F200" s="1"/>
+      <c r="G200" s="1"/>
+    </row>
+    <row r="201">
+      <c r="E201" s="1"/>
+      <c r="F201" s="1"/>
+      <c r="G201" s="1"/>
+    </row>
+    <row r="202">
+      <c r="E202" s="1"/>
+      <c r="F202" s="1"/>
+      <c r="G202" s="1"/>
+    </row>
+    <row r="203">
+      <c r="E203" s="1"/>
+      <c r="F203" s="1"/>
+      <c r="G203" s="1"/>
+    </row>
+    <row r="204">
+      <c r="E204" s="1"/>
+      <c r="F204" s="1"/>
+      <c r="G204" s="1"/>
+    </row>
+    <row r="205">
+      <c r="E205" s="1"/>
+      <c r="F205" s="1"/>
+      <c r="G205" s="1"/>
+    </row>
+    <row r="206">
+      <c r="E206" s="1"/>
+      <c r="F206" s="1"/>
+      <c r="G206" s="1"/>
+    </row>
+    <row r="207">
+      <c r="E207" s="1"/>
+      <c r="F207" s="1"/>
+      <c r="G207" s="1"/>
+    </row>
+    <row r="208">
+      <c r="E208" s="1"/>
+      <c r="F208" s="1"/>
+      <c r="G208" s="1"/>
+    </row>
+    <row r="209">
+      <c r="E209" s="1"/>
+      <c r="F209" s="1"/>
+      <c r="G209" s="1"/>
+    </row>
+    <row r="210">
+      <c r="E210" s="1"/>
+      <c r="F210" s="1"/>
+      <c r="G210" s="1"/>
+    </row>
+    <row r="211">
+      <c r="E211" s="1"/>
+      <c r="F211" s="1"/>
+      <c r="G211" s="1"/>
+    </row>
+    <row r="212">
+      <c r="E212" s="1"/>
+      <c r="F212" s="1"/>
+      <c r="G212" s="1"/>
+    </row>
+    <row r="213">
+      <c r="E213" s="1"/>
+      <c r="F213" s="1"/>
+      <c r="G213" s="1"/>
+    </row>
+    <row r="214">
+      <c r="E214" s="1"/>
+      <c r="F214" s="1"/>
+      <c r="G214" s="1"/>
+    </row>
+    <row r="215">
+      <c r="E215" s="1"/>
+      <c r="F215" s="1"/>
+      <c r="G215" s="1"/>
+    </row>
+    <row r="216">
+      <c r="E216" s="1"/>
+      <c r="F216" s="1"/>
+      <c r="G216" s="1"/>
+    </row>
+    <row r="217">
+      <c r="E217" s="1"/>
+      <c r="F217" s="1"/>
+      <c r="G217" s="1"/>
+    </row>
+    <row r="218">
+      <c r="E218" s="1"/>
+      <c r="F218" s="1"/>
+      <c r="G218" s="1"/>
+    </row>
+    <row r="219">
+      <c r="E219" s="1"/>
+      <c r="F219" s="1"/>
+      <c r="G219" s="1"/>
+    </row>
+    <row r="220">
+      <c r="E220" s="1"/>
+      <c r="F220" s="1"/>
+      <c r="G220" s="1"/>
+    </row>
+    <row r="221">
+      <c r="E221" s="1"/>
+      <c r="F221" s="1"/>
+      <c r="G221" s="1"/>
+    </row>
+    <row r="222">
+      <c r="E222" s="1"/>
+      <c r="F222" s="1"/>
+      <c r="G222" s="1"/>
+    </row>
+    <row r="223">
+      <c r="E223" s="1"/>
+      <c r="F223" s="1"/>
+      <c r="G223" s="1"/>
+    </row>
+    <row r="224">
+      <c r="E224" s="1"/>
+      <c r="F224" s="1"/>
+      <c r="G224" s="1"/>
+    </row>
+    <row r="225">
+      <c r="E225" s="1"/>
+      <c r="F225" s="1"/>
+      <c r="G225" s="1"/>
+    </row>
+    <row r="226">
+      <c r="E226" s="1"/>
+      <c r="F226" s="1"/>
+      <c r="G226" s="1"/>
+    </row>
+    <row r="227">
+      <c r="E227" s="1"/>
+      <c r="F227" s="1"/>
+      <c r="G227" s="1"/>
+    </row>
+    <row r="228">
+      <c r="E228" s="1"/>
+      <c r="F228" s="1"/>
+      <c r="G228" s="1"/>
+    </row>
+    <row r="229">
+      <c r="E229" s="1"/>
+      <c r="F229" s="1"/>
+      <c r="G229" s="1"/>
+    </row>
+    <row r="230">
+      <c r="E230" s="1"/>
+      <c r="F230" s="1"/>
+      <c r="G230" s="1"/>
+    </row>
+    <row r="231">
+      <c r="E231" s="1"/>
+      <c r="F231" s="1"/>
+      <c r="G231" s="1"/>
+    </row>
+    <row r="232">
+      <c r="E232" s="1"/>
+      <c r="F232" s="1"/>
+      <c r="G232" s="1"/>
+    </row>
+    <row r="233">
+      <c r="E233" s="1"/>
+      <c r="F233" s="1"/>
+      <c r="G233" s="1"/>
+    </row>
+    <row r="234">
+      <c r="E234" s="1"/>
+      <c r="F234" s="1"/>
+      <c r="G234" s="1"/>
+    </row>
+    <row r="235">
+      <c r="E235" s="1"/>
+      <c r="F235" s="1"/>
+      <c r="G235" s="1"/>
+    </row>
+    <row r="236">
+      <c r="E236" s="1"/>
+      <c r="F236" s="1"/>
+      <c r="G236" s="1"/>
+    </row>
+    <row r="237">
+      <c r="E237" s="1"/>
+      <c r="F237" s="1"/>
+      <c r="G237" s="1"/>
+    </row>
+    <row r="238">
+      <c r="E238" s="1"/>
+      <c r="F238" s="1"/>
+      <c r="G238" s="1"/>
+    </row>
+    <row r="239">
+      <c r="E239" s="1"/>
+      <c r="F239" s="1"/>
+      <c r="G239" s="1"/>
+    </row>
+    <row r="240">
+      <c r="E240" s="1"/>
+      <c r="F240" s="1"/>
+      <c r="G240" s="1"/>
+    </row>
+    <row r="241">
+      <c r="E241" s="1"/>
+      <c r="F241" s="1"/>
+      <c r="G241" s="1"/>
+    </row>
+    <row r="242">
+      <c r="E242" s="1"/>
+      <c r="F242" s="1"/>
+      <c r="G242" s="1"/>
+    </row>
+    <row r="243">
+      <c r="E243" s="1"/>
+      <c r="F243" s="1"/>
+      <c r="G243" s="1"/>
+    </row>
+    <row r="244">
+      <c r="E244" s="1"/>
+      <c r="F244" s="1"/>
+      <c r="G244" s="1"/>
+    </row>
+    <row r="245">
+      <c r="E245" s="1"/>
+      <c r="F245" s="1"/>
+      <c r="G245" s="1"/>
+    </row>
+    <row r="246">
+      <c r="E246" s="1"/>
+      <c r="F246" s="1"/>
+      <c r="G246" s="1"/>
+    </row>
+    <row r="247">
+      <c r="E247" s="1"/>
+      <c r="F247" s="1"/>
+      <c r="G247" s="1"/>
+    </row>
+    <row r="248">
+      <c r="E248" s="1"/>
+      <c r="F248" s="1"/>
+      <c r="G248" s="1"/>
+    </row>
+    <row r="249">
+      <c r="E249" s="1"/>
+      <c r="F249" s="1"/>
+      <c r="G249" s="1"/>
+    </row>
+    <row r="250">
+      <c r="E250" s="1"/>
+      <c r="F250" s="1"/>
+      <c r="G250" s="1"/>
+    </row>
+    <row r="251">
+      <c r="E251" s="1"/>
+      <c r="F251" s="1"/>
+      <c r="G251" s="1"/>
+    </row>
+    <row r="252">
+      <c r="E252" s="1"/>
+      <c r="F252" s="1"/>
+      <c r="G252" s="1"/>
+    </row>
+    <row r="253">
+      <c r="E253" s="1"/>
+      <c r="F253" s="1"/>
+      <c r="G253" s="1"/>
+    </row>
+    <row r="254">
+      <c r="E254" s="1"/>
+      <c r="F254" s="1"/>
+      <c r="G254" s="1"/>
+    </row>
+    <row r="255">
+      <c r="E255" s="1"/>
+      <c r="F255" s="1"/>
+      <c r="G255" s="1"/>
+    </row>
+    <row r="256">
+      <c r="E256" s="1"/>
+      <c r="F256" s="1"/>
+      <c r="G256" s="1"/>
+    </row>
+    <row r="257">
+      <c r="E257" s="1"/>
+      <c r="F257" s="1"/>
+      <c r="G257" s="1"/>
+    </row>
+    <row r="258">
+      <c r="E258" s="1"/>
+      <c r="F258" s="1"/>
+      <c r="G258" s="1"/>
+    </row>
+    <row r="259">
+      <c r="E259" s="1"/>
+      <c r="F259" s="1"/>
+      <c r="G259" s="1"/>
+    </row>
+    <row r="260">
+      <c r="E260" s="1"/>
+      <c r="F260" s="1"/>
+      <c r="G260" s="1"/>
+    </row>
+    <row r="261">
+      <c r="E261" s="1"/>
+      <c r="F261" s="1"/>
+      <c r="G261" s="1"/>
+    </row>
+    <row r="262">
+      <c r="E262" s="1"/>
+      <c r="F262" s="1"/>
+      <c r="G262" s="1"/>
+    </row>
+    <row r="263">
+      <c r="E263" s="1"/>
+      <c r="F263" s="1"/>
+      <c r="G263" s="1"/>
+    </row>
+    <row r="264">
+      <c r="E264" s="1"/>
+      <c r="F264" s="1"/>
+      <c r="G264" s="1"/>
+    </row>
+    <row r="265">
+      <c r="E265" s="1"/>
+      <c r="F265" s="1"/>
+      <c r="G265" s="1"/>
+    </row>
+    <row r="266">
+      <c r="E266" s="1"/>
+      <c r="F266" s="1"/>
+      <c r="G266" s="1"/>
+    </row>
+    <row r="267">
+      <c r="E267" s="1"/>
+      <c r="F267" s="1"/>
+      <c r="G267" s="1"/>
+    </row>
+    <row r="268">
+      <c r="E268" s="1"/>
+      <c r="F268" s="1"/>
+      <c r="G268" s="1"/>
+    </row>
+    <row r="269">
+      <c r="E269" s="1"/>
+      <c r="F269" s="1"/>
+      <c r="G269" s="1"/>
+    </row>
+    <row r="270">
+      <c r="E270" s="1"/>
+      <c r="F270" s="1"/>
+      <c r="G270" s="1"/>
+    </row>
+    <row r="271">
+      <c r="E271" s="1"/>
+      <c r="F271" s="1"/>
+      <c r="G271" s="1"/>
+    </row>
+    <row r="272">
+      <c r="E272" s="1"/>
+      <c r="F272" s="1"/>
+      <c r="G272" s="1"/>
+    </row>
+    <row r="273">
+      <c r="E273" s="1"/>
+      <c r="F273" s="1"/>
+      <c r="G273" s="1"/>
+    </row>
+    <row r="274">
+      <c r="E274" s="1"/>
+      <c r="F274" s="1"/>
+      <c r="G274" s="1"/>
+    </row>
+    <row r="275">
+      <c r="E275" s="1"/>
+      <c r="F275" s="1"/>
+      <c r="G275" s="1"/>
+    </row>
+    <row r="276">
+      <c r="E276" s="1"/>
+      <c r="F276" s="1"/>
+      <c r="G276" s="1"/>
+    </row>
+    <row r="277">
+      <c r="E277" s="1"/>
+      <c r="F277" s="1"/>
+      <c r="G277" s="1"/>
+    </row>
+    <row r="278">
+      <c r="E278" s="1"/>
+      <c r="F278" s="1"/>
+      <c r="G278" s="1"/>
+    </row>
+    <row r="279">
+      <c r="E279" s="1"/>
+      <c r="F279" s="1"/>
+      <c r="G279" s="1"/>
+    </row>
+    <row r="280">
+      <c r="E280" s="1"/>
+      <c r="F280" s="1"/>
+      <c r="G280" s="1"/>
+    </row>
+    <row r="281">
+      <c r="E281" s="1"/>
+      <c r="F281" s="1"/>
+      <c r="G281" s="1"/>
+    </row>
+    <row r="282">
+      <c r="E282" s="1"/>
+      <c r="F282" s="1"/>
+      <c r="G282" s="1"/>
+    </row>
+    <row r="283">
+      <c r="E283" s="1"/>
+      <c r="F283" s="1"/>
+      <c r="G283" s="1"/>
+    </row>
+    <row r="284">
+      <c r="E284" s="1"/>
+      <c r="F284" s="1"/>
+      <c r="G284" s="1"/>
+    </row>
+    <row r="285">
+      <c r="E285" s="1"/>
+      <c r="F285" s="1"/>
+      <c r="G285" s="1"/>
+    </row>
+    <row r="286">
+      <c r="E286" s="1"/>
+      <c r="F286" s="1"/>
+      <c r="G286" s="1"/>
+    </row>
+    <row r="287">
+      <c r="E287" s="1"/>
+      <c r="F287" s="1"/>
+      <c r="G287" s="1"/>
+    </row>
+    <row r="288">
+      <c r="E288" s="1"/>
+      <c r="F288" s="1"/>
+      <c r="G288" s="1"/>
+    </row>
+    <row r="289">
+      <c r="E289" s="1"/>
+      <c r="F289" s="1"/>
+      <c r="G289" s="1"/>
+    </row>
+    <row r="290">
+      <c r="E290" s="1"/>
+      <c r="F290" s="1"/>
+      <c r="G290" s="1"/>
+    </row>
+    <row r="291">
+      <c r="E291" s="1"/>
+      <c r="F291" s="1"/>
+      <c r="G291" s="1"/>
+    </row>
+    <row r="292">
+      <c r="E292" s="1"/>
+      <c r="F292" s="1"/>
+      <c r="G292" s="1"/>
+    </row>
+    <row r="293">
+      <c r="E293" s="1"/>
+      <c r="F293" s="1"/>
+      <c r="G293" s="1"/>
+    </row>
+    <row r="294">
+      <c r="E294" s="1"/>
+      <c r="F294" s="1"/>
+      <c r="G294" s="1"/>
+    </row>
+    <row r="295">
+      <c r="E295" s="1"/>
+      <c r="F295" s="1"/>
+      <c r="G295" s="1"/>
+    </row>
+    <row r="296">
+      <c r="E296" s="1"/>
+      <c r="F296" s="1"/>
+      <c r="G296" s="1"/>
+    </row>
+    <row r="297">
+      <c r="E297" s="1"/>
+      <c r="F297" s="1"/>
+      <c r="G297" s="1"/>
+    </row>
+    <row r="298">
+      <c r="E298" s="1"/>
+      <c r="F298" s="1"/>
+      <c r="G298" s="1"/>
+    </row>
+    <row r="299">
+      <c r="E299" s="1"/>
+      <c r="F299" s="1"/>
+      <c r="G299" s="1"/>
+    </row>
+    <row r="300">
+      <c r="E300" s="1"/>
+      <c r="F300" s="1"/>
+      <c r="G300" s="1"/>
+    </row>
+    <row r="301">
+      <c r="E301" s="1"/>
+      <c r="F301" s="1"/>
+      <c r="G301" s="1"/>
+    </row>
+    <row r="302">
+      <c r="E302" s="1"/>
+      <c r="F302" s="1"/>
+      <c r="G302" s="1"/>
+    </row>
+    <row r="303">
+      <c r="E303" s="1"/>
+      <c r="F303" s="1"/>
+      <c r="G303" s="1"/>
+    </row>
+    <row r="304">
+      <c r="E304" s="1"/>
+      <c r="F304" s="1"/>
+      <c r="G304" s="1"/>
+    </row>
+    <row r="305">
+      <c r="E305" s="1"/>
+      <c r="F305" s="1"/>
+      <c r="G305" s="1"/>
+    </row>
+    <row r="306">
+      <c r="E306" s="1"/>
+      <c r="F306" s="1"/>
+      <c r="G306" s="1"/>
+    </row>
+    <row r="307">
+      <c r="E307" s="1"/>
+      <c r="F307" s="1"/>
+      <c r="G307" s="1"/>
+    </row>
+    <row r="308">
+      <c r="E308" s="1"/>
+      <c r="F308" s="1"/>
+      <c r="G308" s="1"/>
+    </row>
+    <row r="309">
+      <c r="E309" s="1"/>
+      <c r="F309" s="1"/>
+      <c r="G309" s="1"/>
+    </row>
+    <row r="310">
+      <c r="E310" s="1"/>
+      <c r="F310" s="1"/>
+      <c r="G310" s="1"/>
+    </row>
+    <row r="311">
+      <c r="E311" s="1"/>
+      <c r="F311" s="1"/>
+      <c r="G311" s="1"/>
+    </row>
+    <row r="312">
+      <c r="E312" s="1"/>
+      <c r="F312" s="1"/>
+      <c r="G312" s="1"/>
+    </row>
+    <row r="313">
+      <c r="E313" s="1"/>
+      <c r="F313" s="1"/>
+      <c r="G313" s="1"/>
+    </row>
+    <row r="314">
+      <c r="E314" s="1"/>
+      <c r="F314" s="1"/>
+      <c r="G314" s="1"/>
+    </row>
+    <row r="315">
+      <c r="E315" s="1"/>
+      <c r="F315" s="1"/>
+      <c r="G315" s="1"/>
+    </row>
+    <row r="316">
+      <c r="E316" s="1"/>
+      <c r="F316" s="1"/>
+      <c r="G316" s="1"/>
+    </row>
+    <row r="317">
+      <c r="E317" s="1"/>
+      <c r="F317" s="1"/>
+      <c r="G317" s="1"/>
+    </row>
+    <row r="318">
+      <c r="E318" s="1"/>
+      <c r="F318" s="1"/>
+      <c r="G318" s="1"/>
+    </row>
+    <row r="319">
+      <c r="E319" s="1"/>
+      <c r="F319" s="1"/>
+      <c r="G319" s="1"/>
+    </row>
+    <row r="320">
+      <c r="E320" s="1"/>
+      <c r="F320" s="1"/>
+      <c r="G320" s="1"/>
+    </row>
+    <row r="321">
+      <c r="E321" s="1"/>
+      <c r="F321" s="1"/>
+      <c r="G321" s="1"/>
+    </row>
+    <row r="322">
+      <c r="E322" s="1"/>
+      <c r="F322" s="1"/>
+      <c r="G322" s="1"/>
+    </row>
+    <row r="323">
+      <c r="E323" s="1"/>
+      <c r="F323" s="1"/>
+      <c r="G323" s="1"/>
+    </row>
+    <row r="324">
+      <c r="E324" s="1"/>
+      <c r="F324" s="1"/>
+      <c r="G324" s="1"/>
+    </row>
+    <row r="325">
+      <c r="E325" s="1"/>
+      <c r="F325" s="1"/>
+      <c r="G325" s="1"/>
+    </row>
+    <row r="326">
+      <c r="E326" s="1"/>
+      <c r="F326" s="1"/>
+      <c r="G326" s="1"/>
+    </row>
+    <row r="327">
+      <c r="E327" s="1"/>
+      <c r="F327" s="1"/>
+      <c r="G327" s="1"/>
+    </row>
+    <row r="328">
+      <c r="E328" s="1"/>
+      <c r="F328" s="1"/>
+      <c r="G328" s="1"/>
+    </row>
+    <row r="329">
+      <c r="E329" s="1"/>
+      <c r="F329" s="1"/>
+      <c r="G329" s="1"/>
+    </row>
+    <row r="330">
+      <c r="E330" s="1"/>
+      <c r="F330" s="1"/>
+      <c r="G330" s="1"/>
+    </row>
+    <row r="331">
+      <c r="E331" s="1"/>
+      <c r="F331" s="1"/>
+      <c r="G331" s="1"/>
+    </row>
+    <row r="332">
+      <c r="E332" s="1"/>
+      <c r="F332" s="1"/>
+      <c r="G332" s="1"/>
+    </row>
+    <row r="333">
+      <c r="E333" s="1"/>
+      <c r="F333" s="1"/>
+      <c r="G333" s="1"/>
+    </row>
+    <row r="334">
+      <c r="E334" s="1"/>
+      <c r="F334" s="1"/>
+      <c r="G334" s="1"/>
+    </row>
+    <row r="335">
+      <c r="E335" s="1"/>
+      <c r="F335" s="1"/>
+      <c r="G335" s="1"/>
+    </row>
+    <row r="336">
+      <c r="E336" s="1"/>
+      <c r="F336" s="1"/>
+      <c r="G336" s="1"/>
+    </row>
+    <row r="337">
+      <c r="E337" s="1"/>
+      <c r="F337" s="1"/>
+      <c r="G337" s="1"/>
+    </row>
+    <row r="338">
+      <c r="E338" s="1"/>
+      <c r="F338" s="1"/>
+      <c r="G338" s="1"/>
+    </row>
+    <row r="339">
+      <c r="E339" s="1"/>
+      <c r="F339" s="1"/>
+      <c r="G339" s="1"/>
+    </row>
+    <row r="340">
+      <c r="E340" s="1"/>
+      <c r="F340" s="1"/>
+      <c r="G340" s="1"/>
+    </row>
+    <row r="341">
+      <c r="E341" s="1"/>
+      <c r="F341" s="1"/>
+      <c r="G341" s="1"/>
+    </row>
+    <row r="342">
+      <c r="E342" s="1"/>
+      <c r="F342" s="1"/>
+      <c r="G342" s="1"/>
+    </row>
+    <row r="343">
+      <c r="E343" s="1"/>
+      <c r="F343" s="1"/>
+      <c r="G343" s="1"/>
+    </row>
+    <row r="344">
+      <c r="E344" s="1"/>
+      <c r="F344" s="1"/>
+      <c r="G344" s="1"/>
+    </row>
+    <row r="345">
+      <c r="E345" s="1"/>
+      <c r="F345" s="1"/>
+      <c r="G345" s="1"/>
+    </row>
+    <row r="346">
+      <c r="E346" s="1"/>
+      <c r="F346" s="1"/>
+      <c r="G346" s="1"/>
+    </row>
+    <row r="347">
+      <c r="E347" s="1"/>
+      <c r="F347" s="1"/>
+      <c r="G347" s="1"/>
+    </row>
+    <row r="348">
+      <c r="E348" s="1"/>
+      <c r="F348" s="1"/>
+      <c r="G348" s="1"/>
+    </row>
+    <row r="349">
+      <c r="E349" s="1"/>
+      <c r="F349" s="1"/>
+      <c r="G349" s="1"/>
+    </row>
+    <row r="350">
+      <c r="E350" s="1"/>
+      <c r="F350" s="1"/>
+      <c r="G350" s="1"/>
+    </row>
+    <row r="351">
+      <c r="E351" s="1"/>
+      <c r="F351" s="1"/>
+      <c r="G351" s="1"/>
+    </row>
+    <row r="352">
+      <c r="E352" s="1"/>
+      <c r="F352" s="1"/>
+      <c r="G352" s="1"/>
+    </row>
+    <row r="353">
+      <c r="E353" s="1"/>
+      <c r="F353" s="1"/>
+      <c r="G353" s="1"/>
+    </row>
+    <row r="354">
+      <c r="E354" s="1"/>
+      <c r="F354" s="1"/>
+      <c r="G354" s="1"/>
+    </row>
+    <row r="355">
+      <c r="E355" s="1"/>
+      <c r="F355" s="1"/>
+      <c r="G355" s="1"/>
+    </row>
+    <row r="356">
+      <c r="E356" s="1"/>
+      <c r="F356" s="1"/>
+      <c r="G356" s="1"/>
+    </row>
+    <row r="357">
+      <c r="E357" s="1"/>
+      <c r="F357" s="1"/>
+      <c r="G357" s="1"/>
+    </row>
+    <row r="358">
+      <c r="E358" s="1"/>
+      <c r="F358" s="1"/>
+      <c r="G358" s="1"/>
+    </row>
+    <row r="359">
+      <c r="E359" s="1"/>
+      <c r="F359" s="1"/>
+      <c r="G359" s="1"/>
+    </row>
+    <row r="360">
+      <c r="E360" s="1"/>
+      <c r="F360" s="1"/>
+      <c r="G360" s="1"/>
+    </row>
+    <row r="361">
+      <c r="E361" s="1"/>
+      <c r="F361" s="1"/>
+      <c r="G361" s="1"/>
+    </row>
+    <row r="362">
+      <c r="E362" s="1"/>
+      <c r="F362" s="1"/>
+      <c r="G362" s="1"/>
+    </row>
+    <row r="363">
+      <c r="E363" s="1"/>
+      <c r="F363" s="1"/>
+      <c r="G363" s="1"/>
+    </row>
+    <row r="364">
+      <c r="E364" s="1"/>
+      <c r="F364" s="1"/>
+      <c r="G364" s="1"/>
+    </row>
+    <row r="365">
+      <c r="E365" s="1"/>
+      <c r="F365" s="1"/>
+      <c r="G365" s="1"/>
+    </row>
+    <row r="366">
+      <c r="E366" s="1"/>
+      <c r="F366" s="1"/>
+      <c r="G366" s="1"/>
+    </row>
+    <row r="367">
+      <c r="E367" s="1"/>
+      <c r="F367" s="1"/>
+      <c r="G367" s="1"/>
+    </row>
+    <row r="368">
+      <c r="E368" s="1"/>
+      <c r="F368" s="1"/>
+      <c r="G368" s="1"/>
+    </row>
+    <row r="369">
+      <c r="E369" s="1"/>
+      <c r="F369" s="1"/>
+      <c r="G369" s="1"/>
+    </row>
+    <row r="370">
+      <c r="E370" s="1"/>
+      <c r="F370" s="1"/>
+      <c r="G370" s="1"/>
+    </row>
+    <row r="371">
+      <c r="E371" s="1"/>
+      <c r="F371" s="1"/>
+      <c r="G371" s="1"/>
+    </row>
+    <row r="372">
+      <c r="E372" s="1"/>
+      <c r="F372" s="1"/>
+      <c r="G372" s="1"/>
+    </row>
+    <row r="373">
+      <c r="E373" s="1"/>
+      <c r="F373" s="1"/>
+      <c r="G373" s="1"/>
+    </row>
+    <row r="374">
+      <c r="E374" s="1"/>
+      <c r="F374" s="1"/>
+      <c r="G374" s="1"/>
+    </row>
+    <row r="375">
+      <c r="E375" s="1"/>
+      <c r="F375" s="1"/>
+      <c r="G375" s="1"/>
+    </row>
+    <row r="376">
+      <c r="E376" s="1"/>
+      <c r="F376" s="1"/>
+      <c r="G376" s="1"/>
+    </row>
+    <row r="377">
+      <c r="E377" s="1"/>
+      <c r="F377" s="1"/>
+      <c r="G377" s="1"/>
+    </row>
+    <row r="378">
+      <c r="E378" s="1"/>
+      <c r="F378" s="1"/>
+      <c r="G378" s="1"/>
+    </row>
+    <row r="379">
+      <c r="E379" s="1"/>
+      <c r="F379" s="1"/>
+      <c r="G379" s="1"/>
+    </row>
+    <row r="380">
+      <c r="E380" s="1"/>
+      <c r="F380" s="1"/>
+      <c r="G380" s="1"/>
+    </row>
+    <row r="381">
+      <c r="E381" s="1"/>
+      <c r="F381" s="1"/>
+      <c r="G381" s="1"/>
+    </row>
+    <row r="382">
+      <c r="E382" s="1"/>
+      <c r="F382" s="1"/>
+      <c r="G382" s="1"/>
+    </row>
+    <row r="383">
+      <c r="E383" s="1"/>
+      <c r="F383" s="1"/>
+      <c r="G383" s="1"/>
+    </row>
+    <row r="384">
+      <c r="E384" s="1"/>
+      <c r="F384" s="1"/>
+      <c r="G384" s="1"/>
+    </row>
+    <row r="385">
+      <c r="E385" s="1"/>
+      <c r="F385" s="1"/>
+      <c r="G385" s="1"/>
+    </row>
+    <row r="386">
+      <c r="E386" s="1"/>
+      <c r="F386" s="1"/>
+      <c r="G386" s="1"/>
+    </row>
+    <row r="387">
+      <c r="E387" s="1"/>
+      <c r="F387" s="1"/>
+      <c r="G387" s="1"/>
+    </row>
+    <row r="388">
+      <c r="E388" s="1"/>
+      <c r="F388" s="1"/>
+      <c r="G388" s="1"/>
+    </row>
+    <row r="389">
+      <c r="E389" s="1"/>
+      <c r="F389" s="1"/>
+      <c r="G389" s="1"/>
+    </row>
+    <row r="390">
+      <c r="E390" s="1"/>
+      <c r="F390" s="1"/>
+      <c r="G390" s="1"/>
+    </row>
+    <row r="391">
+      <c r="E391" s="1"/>
+      <c r="F391" s="1"/>
+      <c r="G391" s="1"/>
+    </row>
+    <row r="392">
+      <c r="E392" s="1"/>
+      <c r="F392" s="1"/>
+      <c r="G392" s="1"/>
+    </row>
+    <row r="393">
+      <c r="E393" s="1"/>
+      <c r="F393" s="1"/>
+      <c r="G393" s="1"/>
+    </row>
+    <row r="394">
+      <c r="E394" s="1"/>
+      <c r="F394" s="1"/>
+      <c r="G394" s="1"/>
+    </row>
+    <row r="395">
+      <c r="E395" s="1"/>
+      <c r="F395" s="1"/>
+      <c r="G395" s="1"/>
+    </row>
+    <row r="396">
+      <c r="E396" s="1"/>
+      <c r="F396" s="1"/>
+      <c r="G396" s="1"/>
+    </row>
+    <row r="397">
+      <c r="E397" s="1"/>
+      <c r="F397" s="1"/>
+      <c r="G397" s="1"/>
+    </row>
+    <row r="398">
+      <c r="E398" s="1"/>
+      <c r="F398" s="1"/>
+      <c r="G398" s="1"/>
+    </row>
+    <row r="399">
+      <c r="E399" s="1"/>
+      <c r="F399" s="1"/>
+      <c r="G399" s="1"/>
+    </row>
+    <row r="400">
+      <c r="E400" s="1"/>
+      <c r="F400" s="1"/>
+      <c r="G400" s="1"/>
+    </row>
+    <row r="401">
+      <c r="E401" s="1"/>
+      <c r="F401" s="1"/>
+      <c r="G401" s="1"/>
+    </row>
+    <row r="402">
+      <c r="E402" s="1"/>
+      <c r="F402" s="1"/>
+      <c r="G402" s="1"/>
+    </row>
+    <row r="403">
+      <c r="E403" s="1"/>
+      <c r="F403" s="1"/>
+      <c r="G403" s="1"/>
+    </row>
+    <row r="404">
+      <c r="E404" s="1"/>
+      <c r="F404" s="1"/>
+      <c r="G404" s="1"/>
+    </row>
+    <row r="405">
+      <c r="E405" s="1"/>
+      <c r="F405" s="1"/>
+      <c r="G405" s="1"/>
+    </row>
+    <row r="406">
+      <c r="E406" s="1"/>
+      <c r="F406" s="1"/>
+      <c r="G406" s="1"/>
+    </row>
+    <row r="407">
+      <c r="E407" s="1"/>
+      <c r="F407" s="1"/>
+      <c r="G407" s="1"/>
+    </row>
+    <row r="408">
+      <c r="E408" s="1"/>
+      <c r="F408" s="1"/>
+      <c r="G408" s="1"/>
+    </row>
+    <row r="409">
+      <c r="E409" s="1"/>
+      <c r="F409" s="1"/>
+      <c r="G409" s="1"/>
+    </row>
+    <row r="410">
+      <c r="E410" s="1"/>
+      <c r="F410" s="1"/>
+      <c r="G410" s="1"/>
+    </row>
+    <row r="411">
+      <c r="E411" s="1"/>
+      <c r="F411" s="1"/>
+      <c r="G411" s="1"/>
+    </row>
+    <row r="412">
+      <c r="E412" s="1"/>
+      <c r="F412" s="1"/>
+      <c r="G412" s="1"/>
+    </row>
+    <row r="413">
+      <c r="E413" s="1"/>
+      <c r="F413" s="1"/>
+      <c r="G413" s="1"/>
+    </row>
+    <row r="414">
+      <c r="E414" s="1"/>
+      <c r="F414" s="1"/>
+      <c r="G414" s="1"/>
+    </row>
+    <row r="415">
+      <c r="E415" s="1"/>
+      <c r="F415" s="1"/>
+      <c r="G415" s="1"/>
+    </row>
+    <row r="416">
+      <c r="E416" s="1"/>
+      <c r="F416" s="1"/>
+      <c r="G416" s="1"/>
+    </row>
+    <row r="417">
+      <c r="E417" s="1"/>
+      <c r="F417" s="1"/>
+      <c r="G417" s="1"/>
+    </row>
+    <row r="418">
+      <c r="E418" s="1"/>
+      <c r="F418" s="1"/>
+      <c r="G418" s="1"/>
+    </row>
+    <row r="419">
+      <c r="E419" s="1"/>
+      <c r="F419" s="1"/>
+      <c r="G419" s="1"/>
+    </row>
+    <row r="420">
+      <c r="E420" s="1"/>
+      <c r="F420" s="1"/>
+      <c r="G420" s="1"/>
+    </row>
+    <row r="421">
+      <c r="E421" s="1"/>
+      <c r="F421" s="1"/>
+      <c r="G421" s="1"/>
+    </row>
+    <row r="422">
+      <c r="E422" s="1"/>
+      <c r="F422" s="1"/>
+      <c r="G422" s="1"/>
+    </row>
+    <row r="423">
+      <c r="E423" s="1"/>
+      <c r="F423" s="1"/>
+      <c r="G423" s="1"/>
+    </row>
+    <row r="424">
+      <c r="E424" s="1"/>
+      <c r="F424" s="1"/>
+      <c r="G424" s="1"/>
+    </row>
+    <row r="425">
+      <c r="E425" s="1"/>
+      <c r="F425" s="1"/>
+      <c r="G425" s="1"/>
+    </row>
+    <row r="426">
+      <c r="E426" s="1"/>
+      <c r="F426" s="1"/>
+      <c r="G426" s="1"/>
+    </row>
+    <row r="427">
+      <c r="E427" s="1"/>
+      <c r="F427" s="1"/>
+      <c r="G427" s="1"/>
+    </row>
+    <row r="428">
+      <c r="E428" s="1"/>
+      <c r="F428" s="1"/>
+      <c r="G428" s="1"/>
+    </row>
+    <row r="429">
+      <c r="E429" s="1"/>
+      <c r="F429" s="1"/>
+      <c r="G429" s="1"/>
+    </row>
+    <row r="430">
+      <c r="E430" s="1"/>
+      <c r="F430" s="1"/>
+      <c r="G430" s="1"/>
+    </row>
+    <row r="431">
+      <c r="E431" s="1"/>
+      <c r="F431" s="1"/>
+      <c r="G431" s="1"/>
+    </row>
+    <row r="432">
+      <c r="E432" s="1"/>
+      <c r="F432" s="1"/>
+      <c r="G432" s="1"/>
+    </row>
+    <row r="433">
+      <c r="E433" s="1"/>
+      <c r="F433" s="1"/>
+      <c r="G433" s="1"/>
+    </row>
+    <row r="434">
+      <c r="E434" s="1"/>
+      <c r="F434" s="1"/>
+      <c r="G434" s="1"/>
+    </row>
+    <row r="435">
+      <c r="E435" s="1"/>
+      <c r="F435" s="1"/>
+      <c r="G435" s="1"/>
+    </row>
+    <row r="436">
+      <c r="E436" s="1"/>
+      <c r="F436" s="1"/>
+      <c r="G436" s="1"/>
+    </row>
+    <row r="437">
+      <c r="E437" s="1"/>
+      <c r="F437" s="1"/>
+      <c r="G437" s="1"/>
+    </row>
+    <row r="438">
+      <c r="E438" s="1"/>
+      <c r="F438" s="1"/>
+      <c r="G438" s="1"/>
+    </row>
+    <row r="439">
+      <c r="E439" s="1"/>
+      <c r="F439" s="1"/>
+      <c r="G439" s="1"/>
+    </row>
+    <row r="440">
+      <c r="E440" s="1"/>
+      <c r="F440" s="1"/>
+      <c r="G440" s="1"/>
+    </row>
+    <row r="441">
+      <c r="E441" s="1"/>
+      <c r="F441" s="1"/>
+      <c r="G441" s="1"/>
+    </row>
+    <row r="442">
+      <c r="E442" s="1"/>
+      <c r="F442" s="1"/>
+      <c r="G442" s="1"/>
+    </row>
+    <row r="443">
+      <c r="E443" s="1"/>
+      <c r="F443" s="1"/>
+      <c r="G443" s="1"/>
+    </row>
+    <row r="444">
+      <c r="E444" s="1"/>
+      <c r="F444" s="1"/>
+      <c r="G444" s="1"/>
+    </row>
+    <row r="445">
+      <c r="E445" s="1"/>
+      <c r="F445" s="1"/>
+      <c r="G445" s="1"/>
+    </row>
+    <row r="446">
+      <c r="E446" s="1"/>
+      <c r="F446" s="1"/>
+      <c r="G446" s="1"/>
+    </row>
+    <row r="447">
+      <c r="E447" s="1"/>
+      <c r="F447" s="1"/>
+      <c r="G447" s="1"/>
+    </row>
+    <row r="448">
+      <c r="E448" s="1"/>
+      <c r="F448" s="1"/>
+      <c r="G448" s="1"/>
+    </row>
+    <row r="449">
+      <c r="E449" s="1"/>
+      <c r="F449" s="1"/>
+      <c r="G449" s="1"/>
+    </row>
+    <row r="450">
+      <c r="E450" s="1"/>
+      <c r="F450" s="1"/>
+      <c r="G450" s="1"/>
+    </row>
+    <row r="451">
+      <c r="E451" s="1"/>
+      <c r="F451" s="1"/>
+      <c r="G451" s="1"/>
+    </row>
+    <row r="452">
+      <c r="E452" s="1"/>
+      <c r="F452" s="1"/>
+      <c r="G452" s="1"/>
+    </row>
+    <row r="453">
+      <c r="E453" s="1"/>
+      <c r="F453" s="1"/>
+      <c r="G453" s="1"/>
+    </row>
+    <row r="454">
+      <c r="E454" s="1"/>
+      <c r="F454" s="1"/>
+      <c r="G454" s="1"/>
+    </row>
+    <row r="455">
+      <c r="E455" s="1"/>
+      <c r="F455" s="1"/>
+      <c r="G455" s="1"/>
+    </row>
+    <row r="456">
+      <c r="E456" s="1"/>
+      <c r="F456" s="1"/>
+      <c r="G456" s="1"/>
+    </row>
+    <row r="457">
+      <c r="E457" s="1"/>
+      <c r="F457" s="1"/>
+      <c r="G457" s="1"/>
+    </row>
+    <row r="458">
+      <c r="E458" s="1"/>
+      <c r="F458" s="1"/>
+      <c r="G458" s="1"/>
+    </row>
+    <row r="459">
+      <c r="E459" s="1"/>
+      <c r="F459" s="1"/>
+      <c r="G459" s="1"/>
+    </row>
+    <row r="460">
+      <c r="E460" s="1"/>
+      <c r="F460" s="1"/>
+      <c r="G460" s="1"/>
+    </row>
+    <row r="461">
+      <c r="E461" s="1"/>
+      <c r="F461" s="1"/>
+      <c r="G461" s="1"/>
+    </row>
+    <row r="462">
+      <c r="E462" s="1"/>
+      <c r="F462" s="1"/>
+      <c r="G462" s="1"/>
+    </row>
+    <row r="463">
+      <c r="E463" s="1"/>
+      <c r="F463" s="1"/>
+      <c r="G463" s="1"/>
+    </row>
+    <row r="464">
+      <c r="E464" s="1"/>
+      <c r="F464" s="1"/>
+      <c r="G464" s="1"/>
+    </row>
+    <row r="465">
+      <c r="E465" s="1"/>
+      <c r="F465" s="1"/>
+      <c r="G465" s="1"/>
+    </row>
+    <row r="466">
+      <c r="E466" s="1"/>
+      <c r="F466" s="1"/>
+      <c r="G466" s="1"/>
+    </row>
+    <row r="467">
+      <c r="E467" s="1"/>
+      <c r="F467" s="1"/>
+      <c r="G467" s="1"/>
+    </row>
+    <row r="468">
+      <c r="E468" s="1"/>
+      <c r="F468" s="1"/>
+      <c r="G468" s="1"/>
+    </row>
+    <row r="469">
+      <c r="E469" s="1"/>
+      <c r="F469" s="1"/>
+      <c r="G469" s="1"/>
+    </row>
+    <row r="470">
+      <c r="E470" s="1"/>
+      <c r="F470" s="1"/>
+      <c r="G470" s="1"/>
+    </row>
+    <row r="471">
+      <c r="E471" s="1"/>
+      <c r="F471" s="1"/>
+      <c r="G471" s="1"/>
+    </row>
+    <row r="472">
+      <c r="E472" s="1"/>
+      <c r="F472" s="1"/>
+      <c r="G472" s="1"/>
+    </row>
+    <row r="473">
+      <c r="E473" s="1"/>
+      <c r="F473" s="1"/>
+      <c r="G473" s="1"/>
+    </row>
+    <row r="474">
+      <c r="E474" s="1"/>
+      <c r="F474" s="1"/>
+      <c r="G474" s="1"/>
+    </row>
+    <row r="475">
+      <c r="E475" s="1"/>
+      <c r="F475" s="1"/>
+      <c r="G475" s="1"/>
+    </row>
+    <row r="476">
+      <c r="E476" s="1"/>
+      <c r="F476" s="1"/>
+      <c r="G476" s="1"/>
+    </row>
+    <row r="477">
+      <c r="E477" s="1"/>
+      <c r="F477" s="1"/>
+      <c r="G477" s="1"/>
+    </row>
+    <row r="478">
+      <c r="E478" s="1"/>
+      <c r="F478" s="1"/>
+      <c r="G478" s="1"/>
+    </row>
+    <row r="479">
+      <c r="E479" s="1"/>
+      <c r="F479" s="1"/>
+      <c r="G479" s="1"/>
+    </row>
+    <row r="480">
+      <c r="E480" s="1"/>
+      <c r="F480" s="1"/>
+      <c r="G480" s="1"/>
+    </row>
+    <row r="481">
+      <c r="E481" s="1"/>
+      <c r="F481" s="1"/>
+      <c r="G481" s="1"/>
+    </row>
+    <row r="482">
+      <c r="E482" s="1"/>
+      <c r="F482" s="1"/>
+      <c r="G482" s="1"/>
+    </row>
+    <row r="483">
+      <c r="E483" s="1"/>
+      <c r="F483" s="1"/>
+      <c r="G483" s="1"/>
+    </row>
+    <row r="484">
+      <c r="E484" s="1"/>
+      <c r="F484" s="1"/>
+      <c r="G484" s="1"/>
+    </row>
+    <row r="485">
+      <c r="E485" s="1"/>
+      <c r="F485" s="1"/>
+      <c r="G485" s="1"/>
+    </row>
+    <row r="486">
+      <c r="E486" s="1"/>
+      <c r="F486" s="1"/>
+      <c r="G486" s="1"/>
+    </row>
+    <row r="487">
+      <c r="E487" s="1"/>
+      <c r="F487" s="1"/>
+      <c r="G487" s="1"/>
+    </row>
+    <row r="488">
+      <c r="E488" s="1"/>
+      <c r="F488" s="1"/>
+      <c r="G488" s="1"/>
+    </row>
+    <row r="489">
+      <c r="E489" s="1"/>
+      <c r="F489" s="1"/>
+      <c r="G489" s="1"/>
+    </row>
+    <row r="490">
+      <c r="E490" s="1"/>
+      <c r="F490" s="1"/>
+      <c r="G490" s="1"/>
+    </row>
+    <row r="491">
+      <c r="E491" s="1"/>
+      <c r="F491" s="1"/>
+      <c r="G491" s="1"/>
+    </row>
+    <row r="492">
+      <c r="E492" s="1"/>
+      <c r="F492" s="1"/>
+      <c r="G492" s="1"/>
+    </row>
+    <row r="493">
+      <c r="E493" s="1"/>
+      <c r="F493" s="1"/>
+      <c r="G493" s="1"/>
+    </row>
+    <row r="494">
+      <c r="E494" s="1"/>
+      <c r="F494" s="1"/>
+      <c r="G494" s="1"/>
+    </row>
+    <row r="495">
+      <c r="E495" s="1"/>
+      <c r="F495" s="1"/>
+      <c r="G495" s="1"/>
+    </row>
+    <row r="496">
+      <c r="E496" s="1"/>
+      <c r="F496" s="1"/>
+      <c r="G496" s="1"/>
+    </row>
+    <row r="497">
+      <c r="E497" s="1"/>
+      <c r="F497" s="1"/>
+      <c r="G497" s="1"/>
+    </row>
+    <row r="498">
+      <c r="E498" s="1"/>
+      <c r="F498" s="1"/>
+      <c r="G498" s="1"/>
+    </row>
+    <row r="499">
+      <c r="E499" s="1"/>
+      <c r="F499" s="1"/>
+      <c r="G499" s="1"/>
+    </row>
+    <row r="500">
+      <c r="E500" s="1"/>
+      <c r="F500" s="1"/>
+      <c r="G500" s="1"/>
+    </row>
+    <row r="501">
+      <c r="E501" s="1"/>
+      <c r="F501" s="1"/>
+      <c r="G501" s="1"/>
+    </row>
+    <row r="502">
+      <c r="E502" s="1"/>
+      <c r="F502" s="1"/>
+      <c r="G502" s="1"/>
+    </row>
+    <row r="503">
+      <c r="E503" s="1"/>
+      <c r="F503" s="1"/>
+      <c r="G503" s="1"/>
+    </row>
+    <row r="504">
+      <c r="E504" s="1"/>
+      <c r="F504" s="1"/>
+      <c r="G504" s="1"/>
+    </row>
+    <row r="505">
+      <c r="E505" s="1"/>
+      <c r="F505" s="1"/>
+      <c r="G505" s="1"/>
+    </row>
+    <row r="506">
+      <c r="E506" s="1"/>
+      <c r="F506" s="1"/>
+      <c r="G506" s="1"/>
+    </row>
+    <row r="507">
+      <c r="E507" s="1"/>
+      <c r="F507" s="1"/>
+      <c r="G507" s="1"/>
+    </row>
+    <row r="508">
+      <c r="E508" s="1"/>
+      <c r="F508" s="1"/>
+      <c r="G508" s="1"/>
+    </row>
+    <row r="509">
+      <c r="E509" s="1"/>
+      <c r="F509" s="1"/>
+      <c r="G509" s="1"/>
+    </row>
+    <row r="510">
+      <c r="E510" s="1"/>
+      <c r="F510" s="1"/>
+      <c r="G510" s="1"/>
+    </row>
+    <row r="511">
+      <c r="E511" s="1"/>
+      <c r="F511" s="1"/>
+      <c r="G511" s="1"/>
+    </row>
+    <row r="512">
+      <c r="E512" s="1"/>
+      <c r="F512" s="1"/>
+      <c r="G512" s="1"/>
+    </row>
+    <row r="513">
+      <c r="E513" s="1"/>
+      <c r="F513" s="1"/>
+      <c r="G513" s="1"/>
+    </row>
+    <row r="514">
+      <c r="E514" s="1"/>
+      <c r="F514" s="1"/>
+      <c r="G514" s="1"/>
+    </row>
+    <row r="515">
+      <c r="E515" s="1"/>
+      <c r="F515" s="1"/>
+      <c r="G515" s="1"/>
+    </row>
+    <row r="516">
+      <c r="E516" s="1"/>
+      <c r="F516" s="1"/>
+      <c r="G516" s="1"/>
+    </row>
+    <row r="517">
+      <c r="E517" s="1"/>
+      <c r="F517" s="1"/>
+      <c r="G517" s="1"/>
+    </row>
+    <row r="518">
+      <c r="E518" s="1"/>
+      <c r="F518" s="1"/>
+      <c r="G518" s="1"/>
+    </row>
+    <row r="519">
+      <c r="E519" s="1"/>
+      <c r="F519" s="1"/>
+      <c r="G519" s="1"/>
+    </row>
+    <row r="520">
+      <c r="E520" s="1"/>
+      <c r="F520" s="1"/>
+      <c r="G520" s="1"/>
+    </row>
+    <row r="521">
+      <c r="E521" s="1"/>
+      <c r="F521" s="1"/>
+      <c r="G521" s="1"/>
+    </row>
+    <row r="522">
+      <c r="E522" s="1"/>
+      <c r="F522" s="1"/>
+      <c r="G522" s="1"/>
+    </row>
+    <row r="523">
+      <c r="E523" s="1"/>
+      <c r="F523" s="1"/>
+      <c r="G523" s="1"/>
+    </row>
+    <row r="524">
+      <c r="E524" s="1"/>
+      <c r="F524" s="1"/>
+      <c r="G524" s="1"/>
+    </row>
+    <row r="525">
+      <c r="E525" s="1"/>
+      <c r="F525" s="1"/>
+      <c r="G525" s="1"/>
+    </row>
+    <row r="526">
+      <c r="E526" s="1"/>
+      <c r="F526" s="1"/>
+      <c r="G526" s="1"/>
+    </row>
+    <row r="527">
+      <c r="E527" s="1"/>
+      <c r="F527" s="1"/>
+      <c r="G527" s="1"/>
+    </row>
+    <row r="528">
+      <c r="E528" s="1"/>
+      <c r="F528" s="1"/>
+      <c r="G528" s="1"/>
+    </row>
+    <row r="529">
+      <c r="E529" s="1"/>
+      <c r="F529" s="1"/>
+      <c r="G529" s="1"/>
+    </row>
+    <row r="530">
+      <c r="E530" s="1"/>
+      <c r="F530" s="1"/>
+      <c r="G530" s="1"/>
+    </row>
+    <row r="531">
+      <c r="E531" s="1"/>
+      <c r="F531" s="1"/>
+      <c r="G531" s="1"/>
+    </row>
+    <row r="532">
+      <c r="E532" s="1"/>
+      <c r="F532" s="1"/>
+      <c r="G532" s="1"/>
+    </row>
+    <row r="533">
+      <c r="E533" s="1"/>
+      <c r="F533" s="1"/>
+      <c r="G533" s="1"/>
+    </row>
+    <row r="534">
+      <c r="E534" s="1"/>
+      <c r="F534" s="1"/>
+      <c r="G534" s="1"/>
+    </row>
+    <row r="535">
+      <c r="E535" s="1"/>
+      <c r="F535" s="1"/>
+      <c r="G535" s="1"/>
+    </row>
+    <row r="536">
+      <c r="E536" s="1"/>
+      <c r="F536" s="1"/>
+      <c r="G536" s="1"/>
+    </row>
+    <row r="537">
+      <c r="E537" s="1"/>
+      <c r="F537" s="1"/>
+      <c r="G537" s="1"/>
+    </row>
+    <row r="538">
+      <c r="E538" s="1"/>
+      <c r="F538" s="1"/>
+      <c r="G538" s="1"/>
+    </row>
+    <row r="539">
+      <c r="E539" s="1"/>
+      <c r="F539" s="1"/>
+      <c r="G539" s="1"/>
+    </row>
+    <row r="540">
+      <c r="E540" s="1"/>
+      <c r="F540" s="1"/>
+      <c r="G540" s="1"/>
+    </row>
+    <row r="541">
+      <c r="E541" s="1"/>
+      <c r="F541" s="1"/>
+      <c r="G541" s="1"/>
+    </row>
+    <row r="542">
+      <c r="E542" s="1"/>
+      <c r="F542" s="1"/>
+      <c r="G542" s="1"/>
+    </row>
+    <row r="543">
+      <c r="E543" s="1"/>
+      <c r="F543" s="1"/>
+      <c r="G543" s="1"/>
+    </row>
+    <row r="544">
+      <c r="E544" s="1"/>
+      <c r="F544" s="1"/>
+      <c r="G544" s="1"/>
+    </row>
+    <row r="545">
+      <c r="E545" s="1"/>
+      <c r="F545" s="1"/>
+      <c r="G545" s="1"/>
+    </row>
+    <row r="546">
+      <c r="E546" s="1"/>
+      <c r="F546" s="1"/>
+      <c r="G546" s="1"/>
+    </row>
+    <row r="547">
+      <c r="E547" s="1"/>
+      <c r="F547" s="1"/>
+      <c r="G547" s="1"/>
+    </row>
+    <row r="548">
+      <c r="E548" s="1"/>
+      <c r="F548" s="1"/>
+      <c r="G548" s="1"/>
+    </row>
+    <row r="549">
+      <c r="E549" s="1"/>
+      <c r="F549" s="1"/>
+      <c r="G549" s="1"/>
+    </row>
+    <row r="550">
+      <c r="E550" s="1"/>
+      <c r="F550" s="1"/>
+      <c r="G550" s="1"/>
+    </row>
+    <row r="551">
+      <c r="E551" s="1"/>
+      <c r="F551" s="1"/>
+      <c r="G551" s="1"/>
+    </row>
+    <row r="552">
+      <c r="E552" s="1"/>
+      <c r="F552" s="1"/>
+      <c r="G552" s="1"/>
+    </row>
+    <row r="553">
+      <c r="E553" s="1"/>
+      <c r="F553" s="1"/>
+      <c r="G553" s="1"/>
+    </row>
+    <row r="554">
+      <c r="E554" s="1"/>
+      <c r="F554" s="1"/>
+      <c r="G554" s="1"/>
+    </row>
+    <row r="555">
+      <c r="E555" s="1"/>
+      <c r="F555" s="1"/>
+      <c r="G555" s="1"/>
+    </row>
+    <row r="556">
+      <c r="E556" s="1"/>
+      <c r="F556" s="1"/>
+      <c r="G556" s="1"/>
+    </row>
+    <row r="557">
+      <c r="E557" s="1"/>
+      <c r="F557" s="1"/>
+      <c r="G557" s="1"/>
+    </row>
+    <row r="558">
+      <c r="E558" s="1"/>
+      <c r="F558" s="1"/>
+      <c r="G558" s="1"/>
+    </row>
+    <row r="559">
+      <c r="E559" s="1"/>
+      <c r="F559" s="1"/>
+      <c r="G559" s="1"/>
+    </row>
+    <row r="560">
+      <c r="E560" s="1"/>
+      <c r="F560" s="1"/>
+      <c r="G560" s="1"/>
+    </row>
+    <row r="561">
+      <c r="E561" s="1"/>
+      <c r="F561" s="1"/>
+      <c r="G561" s="1"/>
+    </row>
+    <row r="562">
+      <c r="E562" s="1"/>
+      <c r="F562" s="1"/>
+      <c r="G562" s="1"/>
+    </row>
+    <row r="563">
+      <c r="E563" s="1"/>
+      <c r="F563" s="1"/>
+      <c r="G563" s="1"/>
+    </row>
+    <row r="564">
+      <c r="E564" s="1"/>
+      <c r="F564" s="1"/>
+      <c r="G564" s="1"/>
+    </row>
+    <row r="565">
+      <c r="E565" s="1"/>
+      <c r="F565" s="1"/>
+      <c r="G565" s="1"/>
+    </row>
+    <row r="566">
+      <c r="E566" s="1"/>
+      <c r="F566" s="1"/>
+      <c r="G566" s="1"/>
+    </row>
+    <row r="567">
+      <c r="E567" s="1"/>
+      <c r="F567" s="1"/>
+      <c r="G567" s="1"/>
+    </row>
+    <row r="568">
+      <c r="E568" s="1"/>
+      <c r="F568" s="1"/>
+      <c r="G568" s="1"/>
+    </row>
+    <row r="569">
+      <c r="E569" s="1"/>
+      <c r="F569" s="1"/>
+      <c r="G569" s="1"/>
+    </row>
+    <row r="570">
+      <c r="E570" s="1"/>
+      <c r="F570" s="1"/>
+      <c r="G570" s="1"/>
+    </row>
+    <row r="571">
+      <c r="E571" s="1"/>
+      <c r="F571" s="1"/>
+      <c r="G571" s="1"/>
+    </row>
+    <row r="572">
+      <c r="E572" s="1"/>
+      <c r="F572" s="1"/>
+      <c r="G572" s="1"/>
+    </row>
+    <row r="573">
+      <c r="E573" s="1"/>
+      <c r="F573" s="1"/>
+      <c r="G573" s="1"/>
+    </row>
+    <row r="574">
+      <c r="E574" s="1"/>
+      <c r="F574" s="1"/>
+      <c r="G574" s="1"/>
+    </row>
+    <row r="575">
+      <c r="E575" s="1"/>
+      <c r="F575" s="1"/>
+      <c r="G575" s="1"/>
+    </row>
+    <row r="576">
+      <c r="E576" s="1"/>
+      <c r="F576" s="1"/>
+      <c r="G576" s="1"/>
+    </row>
+    <row r="577">
+      <c r="E577" s="1"/>
+      <c r="F577" s="1"/>
+      <c r="G577" s="1"/>
+    </row>
+    <row r="578">
+      <c r="E578" s="1"/>
+      <c r="F578" s="1"/>
+      <c r="G578" s="1"/>
+    </row>
+    <row r="579">
+      <c r="E579" s="1"/>
+      <c r="F579" s="1"/>
+      <c r="G579" s="1"/>
+    </row>
+    <row r="580">
+      <c r="E580" s="1"/>
+      <c r="F580" s="1"/>
+      <c r="G580" s="1"/>
+    </row>
+    <row r="581">
+      <c r="E581" s="1"/>
+      <c r="F581" s="1"/>
+      <c r="G581" s="1"/>
+    </row>
+    <row r="582">
+      <c r="E582" s="1"/>
+      <c r="F582" s="1"/>
+      <c r="G582" s="1"/>
+    </row>
+    <row r="583">
+      <c r="E583" s="1"/>
+      <c r="F583" s="1"/>
+      <c r="G583" s="1"/>
+    </row>
+    <row r="584">
+      <c r="E584" s="1"/>
+      <c r="F584" s="1"/>
+      <c r="G584" s="1"/>
+    </row>
+    <row r="585">
+      <c r="E585" s="1"/>
+      <c r="F585" s="1"/>
+      <c r="G585" s="1"/>
+    </row>
+    <row r="586">
+      <c r="E586" s="1"/>
+      <c r="F586" s="1"/>
+      <c r="G586" s="1"/>
+    </row>
+    <row r="587">
+      <c r="E587" s="1"/>
+      <c r="F587" s="1"/>
+      <c r="G587" s="1"/>
+    </row>
+    <row r="588">
+      <c r="E588" s="1"/>
+      <c r="F588" s="1"/>
+      <c r="G588" s="1"/>
+    </row>
+    <row r="589">
+      <c r="E589" s="1"/>
+      <c r="F589" s="1"/>
+      <c r="G589" s="1"/>
+    </row>
+    <row r="590">
+      <c r="E590" s="1"/>
+      <c r="F590" s="1"/>
+      <c r="G590" s="1"/>
+    </row>
+    <row r="591">
+      <c r="E591" s="1"/>
+      <c r="F591" s="1"/>
+      <c r="G591" s="1"/>
+    </row>
+    <row r="592">
+      <c r="E592" s="1"/>
+      <c r="F592" s="1"/>
+      <c r="G592" s="1"/>
+    </row>
+    <row r="593">
+      <c r="E593" s="1"/>
+      <c r="F593" s="1"/>
+      <c r="G593" s="1"/>
+    </row>
+    <row r="594">
+      <c r="E594" s="1"/>
+      <c r="F594" s="1"/>
+      <c r="G594" s="1"/>
+    </row>
+    <row r="595">
+      <c r="E595" s="1"/>
+      <c r="F595" s="1"/>
+      <c r="G595" s="1"/>
+    </row>
+    <row r="596">
+      <c r="E596" s="1"/>
+      <c r="F596" s="1"/>
+      <c r="G596" s="1"/>
+    </row>
+    <row r="597">
+      <c r="E597" s="1"/>
+      <c r="F597" s="1"/>
+      <c r="G597" s="1"/>
+    </row>
+    <row r="598">
+      <c r="E598" s="1"/>
+      <c r="F598" s="1"/>
+      <c r="G598" s="1"/>
+    </row>
+    <row r="599">
+      <c r="E599" s="1"/>
+      <c r="F599" s="1"/>
+      <c r="G599" s="1"/>
+    </row>
+    <row r="600">
+      <c r="E600" s="1"/>
+      <c r="F600" s="1"/>
+      <c r="G600" s="1"/>
+    </row>
+    <row r="601">
+      <c r="E601" s="1"/>
+      <c r="F601" s="1"/>
+      <c r="G601" s="1"/>
+    </row>
+    <row r="602">
+      <c r="E602" s="1"/>
+      <c r="F602" s="1"/>
+      <c r="G602" s="1"/>
+    </row>
+    <row r="603">
+      <c r="E603" s="1"/>
+      <c r="F603" s="1"/>
+      <c r="G603" s="1"/>
+    </row>
+    <row r="604">
+      <c r="E604" s="1"/>
+      <c r="F604" s="1"/>
+      <c r="G604" s="1"/>
+    </row>
+    <row r="605">
+      <c r="E605" s="1"/>
+      <c r="F605" s="1"/>
+      <c r="G605" s="1"/>
+    </row>
+    <row r="606">
+      <c r="E606" s="1"/>
+      <c r="F606" s="1"/>
+      <c r="G606" s="1"/>
+    </row>
+    <row r="607">
+      <c r="E607" s="1"/>
+      <c r="F607" s="1"/>
+      <c r="G607" s="1"/>
+    </row>
+    <row r="608">
+      <c r="E608" s="1"/>
+      <c r="F608" s="1"/>
+      <c r="G608" s="1"/>
+    </row>
+    <row r="609">
+      <c r="E609" s="1"/>
+      <c r="F609" s="1"/>
+      <c r="G609" s="1"/>
+    </row>
+    <row r="610">
+      <c r="E610" s="1"/>
+      <c r="F610" s="1"/>
+      <c r="G610" s="1"/>
+    </row>
+    <row r="611">
+      <c r="E611" s="1"/>
+      <c r="F611" s="1"/>
+      <c r="G611" s="1"/>
+    </row>
+    <row r="612">
+      <c r="E612" s="1"/>
+      <c r="F612" s="1"/>
+      <c r="G612" s="1"/>
+    </row>
+    <row r="613">
+      <c r="E613" s="1"/>
+      <c r="F613" s="1"/>
+      <c r="G613" s="1"/>
+    </row>
+    <row r="614">
+      <c r="E614" s="1"/>
+      <c r="F614" s="1"/>
+      <c r="G614" s="1"/>
+    </row>
+    <row r="615">
+      <c r="E615" s="1"/>
+      <c r="F615" s="1"/>
+      <c r="G615" s="1"/>
+    </row>
+    <row r="616">
+      <c r="E616" s="1"/>
+      <c r="F616" s="1"/>
+      <c r="G616" s="1"/>
+    </row>
+    <row r="617">
+      <c r="E617" s="1"/>
+      <c r="F617" s="1"/>
+      <c r="G617" s="1"/>
+    </row>
+    <row r="618">
+      <c r="E618" s="1"/>
+      <c r="F618" s="1"/>
+      <c r="G618" s="1"/>
+    </row>
+    <row r="619">
+      <c r="E619" s="1"/>
+      <c r="F619" s="1"/>
+      <c r="G619" s="1"/>
+    </row>
+    <row r="620">
+      <c r="E620" s="1"/>
+      <c r="F620" s="1"/>
+      <c r="G620" s="1"/>
+    </row>
+    <row r="621">
+      <c r="E621" s="1"/>
+      <c r="F621" s="1"/>
+      <c r="G621" s="1"/>
+    </row>
+    <row r="622">
+      <c r="E622" s="1"/>
+      <c r="F622" s="1"/>
+      <c r="G622" s="1"/>
+    </row>
+    <row r="623">
+      <c r="E623" s="1"/>
+      <c r="F623" s="1"/>
+      <c r="G623" s="1"/>
+    </row>
+    <row r="624">
+      <c r="E624" s="1"/>
+      <c r="F624" s="1"/>
+      <c r="G624" s="1"/>
+    </row>
+    <row r="625">
+      <c r="E625" s="1"/>
+      <c r="F625" s="1"/>
+      <c r="G625" s="1"/>
+    </row>
+    <row r="626">
+      <c r="E626" s="1"/>
+      <c r="F626" s="1"/>
+      <c r="G626" s="1"/>
+    </row>
+    <row r="627">
+      <c r="E627" s="1"/>
+      <c r="F627" s="1"/>
+      <c r="G627" s="1"/>
+    </row>
+    <row r="628">
+      <c r="E628" s="1"/>
+      <c r="F628" s="1"/>
+      <c r="G628" s="1"/>
+    </row>
+    <row r="629">
+      <c r="E629" s="1"/>
+      <c r="F629" s="1"/>
+      <c r="G629" s="1"/>
+    </row>
+    <row r="630">
+      <c r="E630" s="1"/>
+      <c r="F630" s="1"/>
+      <c r="G630" s="1"/>
+    </row>
+    <row r="631">
+      <c r="E631" s="1"/>
+      <c r="F631" s="1"/>
+      <c r="G631" s="1"/>
+    </row>
+    <row r="632">
+      <c r="E632" s="1"/>
+      <c r="F632" s="1"/>
+      <c r="G632" s="1"/>
+    </row>
+    <row r="633">
+      <c r="E633" s="1"/>
+      <c r="F633" s="1"/>
+      <c r="G633" s="1"/>
+    </row>
+    <row r="634">
+      <c r="E634" s="1"/>
+      <c r="F634" s="1"/>
+      <c r="G634" s="1"/>
+    </row>
+    <row r="635">
+      <c r="E635" s="1"/>
+      <c r="F635" s="1"/>
+      <c r="G635" s="1"/>
+    </row>
+    <row r="636">
+      <c r="E636" s="1"/>
+      <c r="F636" s="1"/>
+      <c r="G636" s="1"/>
+    </row>
+    <row r="637">
+      <c r="E637" s="1"/>
+      <c r="F637" s="1"/>
+      <c r="G637" s="1"/>
+    </row>
+    <row r="638">
+      <c r="E638" s="1"/>
+      <c r="F638" s="1"/>
+      <c r="G638" s="1"/>
+    </row>
+    <row r="639">
+      <c r="E639" s="1"/>
+      <c r="F639" s="1"/>
+      <c r="G639" s="1"/>
+    </row>
+    <row r="640">
+      <c r="E640" s="1"/>
+      <c r="F640" s="1"/>
+      <c r="G640" s="1"/>
+    </row>
+    <row r="641">
+      <c r="E641" s="1"/>
+      <c r="F641" s="1"/>
+      <c r="G641" s="1"/>
+    </row>
+    <row r="642">
+      <c r="E642" s="1"/>
+      <c r="F642" s="1"/>
+      <c r="G642" s="1"/>
+    </row>
+    <row r="643">
+      <c r="E643" s="1"/>
+      <c r="F643" s="1"/>
+      <c r="G643" s="1"/>
+    </row>
+    <row r="644">
+      <c r="E644" s="1"/>
+      <c r="F644" s="1"/>
+      <c r="G644" s="1"/>
+    </row>
+    <row r="645">
+      <c r="E645" s="1"/>
+      <c r="F645" s="1"/>
+      <c r="G645" s="1"/>
+    </row>
+    <row r="646">
+      <c r="E646" s="1"/>
+      <c r="F646" s="1"/>
+      <c r="G646" s="1"/>
+    </row>
+    <row r="647">
+      <c r="E647" s="1"/>
+      <c r="F647" s="1"/>
+      <c r="G647" s="1"/>
+    </row>
+    <row r="648">
+      <c r="E648" s="1"/>
+      <c r="F648" s="1"/>
+      <c r="G648" s="1"/>
+    </row>
+    <row r="649">
+      <c r="E649" s="1"/>
+      <c r="F649" s="1"/>
+      <c r="G649" s="1"/>
+    </row>
+    <row r="650">
+      <c r="E650" s="1"/>
+      <c r="F650" s="1"/>
+      <c r="G650" s="1"/>
+    </row>
+    <row r="651">
+      <c r="E651" s="1"/>
+      <c r="F651" s="1"/>
+      <c r="G651" s="1"/>
+    </row>
+    <row r="652">
+      <c r="E652" s="1"/>
+      <c r="F652" s="1"/>
+      <c r="G652" s="1"/>
+    </row>
+    <row r="653">
+      <c r="E653" s="1"/>
+      <c r="F653" s="1"/>
+      <c r="G653" s="1"/>
+    </row>
+    <row r="654">
+      <c r="E654" s="1"/>
+      <c r="F654" s="1"/>
+      <c r="G654" s="1"/>
+    </row>
+    <row r="655">
+      <c r="E655" s="1"/>
+      <c r="F655" s="1"/>
+      <c r="G655" s="1"/>
+    </row>
+    <row r="656">
+      <c r="E656" s="1"/>
+      <c r="F656" s="1"/>
+      <c r="G656" s="1"/>
+    </row>
+    <row r="657">
+      <c r="E657" s="1"/>
+      <c r="F657" s="1"/>
+      <c r="G657" s="1"/>
+    </row>
+    <row r="658">
+      <c r="E658" s="1"/>
+      <c r="F658" s="1"/>
+      <c r="G658" s="1"/>
+    </row>
+    <row r="659">
+      <c r="E659" s="1"/>
+      <c r="F659" s="1"/>
+      <c r="G659" s="1"/>
+    </row>
+    <row r="660">
+      <c r="E660" s="1"/>
+      <c r="F660" s="1"/>
+      <c r="G660" s="1"/>
+    </row>
+    <row r="661">
+      <c r="E661" s="1"/>
+      <c r="F661" s="1"/>
+      <c r="G661" s="1"/>
+    </row>
+    <row r="662">
+      <c r="E662" s="1"/>
+      <c r="F662" s="1"/>
+      <c r="G662" s="1"/>
+    </row>
+    <row r="663">
+      <c r="E663" s="1"/>
+      <c r="F663" s="1"/>
+      <c r="G663" s="1"/>
+    </row>
+    <row r="664">
+      <c r="E664" s="1"/>
+      <c r="F664" s="1"/>
+      <c r="G664" s="1"/>
+    </row>
+    <row r="665">
+      <c r="E665" s="1"/>
+      <c r="F665" s="1"/>
+      <c r="G665" s="1"/>
+    </row>
+    <row r="666">
+      <c r="E666" s="1"/>
+      <c r="F666" s="1"/>
+      <c r="G666" s="1"/>
+    </row>
+    <row r="667">
+      <c r="E667" s="1"/>
+      <c r="F667" s="1"/>
+      <c r="G667" s="1"/>
+    </row>
+    <row r="668">
+      <c r="E668" s="1"/>
+      <c r="F668" s="1"/>
+      <c r="G668" s="1"/>
+    </row>
+    <row r="669">
+      <c r="E669" s="1"/>
+      <c r="F669" s="1"/>
+      <c r="G669" s="1"/>
+    </row>
+    <row r="670">
+      <c r="E670" s="1"/>
+      <c r="F670" s="1"/>
+      <c r="G670" s="1"/>
+    </row>
+    <row r="671">
+      <c r="E671" s="1"/>
+      <c r="F671" s="1"/>
+      <c r="G671" s="1"/>
+    </row>
+    <row r="672">
+      <c r="E672" s="1"/>
+      <c r="F672" s="1"/>
+      <c r="G672" s="1"/>
+    </row>
+    <row r="673">
+      <c r="E673" s="1"/>
+      <c r="F673" s="1"/>
+      <c r="G673" s="1"/>
+    </row>
+    <row r="674">
+      <c r="E674" s="1"/>
+      <c r="F674" s="1"/>
+      <c r="G674" s="1"/>
+    </row>
+    <row r="675">
+      <c r="E675" s="1"/>
+      <c r="F675" s="1"/>
+      <c r="G675" s="1"/>
+    </row>
+    <row r="676">
+      <c r="E676" s="1"/>
+      <c r="F676" s="1"/>
+      <c r="G676" s="1"/>
+    </row>
+    <row r="677">
+      <c r="E677" s="1"/>
+      <c r="F677" s="1"/>
+      <c r="G677" s="1"/>
+    </row>
+    <row r="678">
+      <c r="E678" s="1"/>
+      <c r="F678" s="1"/>
+      <c r="G678" s="1"/>
+    </row>
+    <row r="679">
+      <c r="E679" s="1"/>
+      <c r="F679" s="1"/>
+      <c r="G679" s="1"/>
+    </row>
+    <row r="680">
+      <c r="E680" s="1"/>
+      <c r="F680" s="1"/>
+      <c r="G680" s="1"/>
+    </row>
+    <row r="681">
+      <c r="E681" s="1"/>
+      <c r="F681" s="1"/>
+      <c r="G681" s="1"/>
+    </row>
+    <row r="682">
+      <c r="E682" s="1"/>
+      <c r="F682" s="1"/>
+      <c r="G682" s="1"/>
+    </row>
+    <row r="683">
+      <c r="E683" s="1"/>
+      <c r="F683" s="1"/>
+      <c r="G683" s="1"/>
+    </row>
+    <row r="684">
+      <c r="E684" s="1"/>
+      <c r="F684" s="1"/>
+      <c r="G684" s="1"/>
+    </row>
+    <row r="685">
+      <c r="E685" s="1"/>
+      <c r="F685" s="1"/>
+      <c r="G685" s="1"/>
+    </row>
+    <row r="686">
+      <c r="E686" s="1"/>
+      <c r="F686" s="1"/>
+      <c r="G686" s="1"/>
+    </row>
+    <row r="687">
+      <c r="E687" s="1"/>
+      <c r="F687" s="1"/>
+      <c r="G687" s="1"/>
+    </row>
+    <row r="688">
+      <c r="E688" s="1"/>
+      <c r="F688" s="1"/>
+      <c r="G688" s="1"/>
+    </row>
+    <row r="689">
+      <c r="E689" s="1"/>
+      <c r="F689" s="1"/>
+      <c r="G689" s="1"/>
+    </row>
+    <row r="690">
+      <c r="E690" s="1"/>
+      <c r="F690" s="1"/>
+      <c r="G690" s="1"/>
+    </row>
+    <row r="691">
+      <c r="E691" s="1"/>
+      <c r="F691" s="1"/>
+      <c r="G691" s="1"/>
+    </row>
+    <row r="692">
+      <c r="E692" s="1"/>
+      <c r="F692" s="1"/>
+      <c r="G692" s="1"/>
+    </row>
+    <row r="693">
+      <c r="E693" s="1"/>
+      <c r="F693" s="1"/>
+      <c r="G693" s="1"/>
+    </row>
+    <row r="694">
+      <c r="E694" s="1"/>
+      <c r="F694" s="1"/>
+      <c r="G694" s="1"/>
+    </row>
+    <row r="695">
+      <c r="E695" s="1"/>
+      <c r="F695" s="1"/>
+      <c r="G695" s="1"/>
+    </row>
+    <row r="696">
+      <c r="E696" s="1"/>
+      <c r="F696" s="1"/>
+      <c r="G696" s="1"/>
+    </row>
+    <row r="697">
+      <c r="E697" s="1"/>
+      <c r="F697" s="1"/>
+      <c r="G697" s="1"/>
+    </row>
+    <row r="698">
+      <c r="E698" s="1"/>
+      <c r="F698" s="1"/>
+      <c r="G698" s="1"/>
+    </row>
+    <row r="699">
+      <c r="E699" s="1"/>
+      <c r="F699" s="1"/>
+      <c r="G699" s="1"/>
+    </row>
+    <row r="700">
+      <c r="E700" s="1"/>
+      <c r="F700" s="1"/>
+      <c r="G700" s="1"/>
+    </row>
+    <row r="701">
+      <c r="E701" s="1"/>
+      <c r="F701" s="1"/>
+      <c r="G701" s="1"/>
+    </row>
+    <row r="702">
+      <c r="E702" s="1"/>
+      <c r="F702" s="1"/>
+      <c r="G702" s="1"/>
+    </row>
+    <row r="703">
+      <c r="E703" s="1"/>
+      <c r="F703" s="1"/>
+      <c r="G703" s="1"/>
+    </row>
+    <row r="704">
+      <c r="E704" s="1"/>
+      <c r="F704" s="1"/>
+      <c r="G704" s="1"/>
+    </row>
+    <row r="705">
+      <c r="E705" s="1"/>
+      <c r="F705" s="1"/>
+      <c r="G705" s="1"/>
+    </row>
+    <row r="706">
+      <c r="E706" s="1"/>
+      <c r="F706" s="1"/>
+      <c r="G706" s="1"/>
+    </row>
+    <row r="707">
+      <c r="E707" s="1"/>
+      <c r="F707" s="1"/>
+      <c r="G707" s="1"/>
+    </row>
+    <row r="708">
+      <c r="E708" s="1"/>
+      <c r="F708" s="1"/>
+      <c r="G708" s="1"/>
+    </row>
+    <row r="709">
+      <c r="E709" s="1"/>
+      <c r="F709" s="1"/>
+      <c r="G709" s="1"/>
+    </row>
+    <row r="710">
+      <c r="E710" s="1"/>
+      <c r="F710" s="1"/>
+      <c r="G710" s="1"/>
+    </row>
+    <row r="711">
+      <c r="E711" s="1"/>
+      <c r="F711" s="1"/>
+      <c r="G711" s="1"/>
+    </row>
+    <row r="712">
+      <c r="E712" s="1"/>
+      <c r="F712" s="1"/>
+      <c r="G712" s="1"/>
+    </row>
+    <row r="713">
+      <c r="E713" s="1"/>
+      <c r="F713" s="1"/>
+      <c r="G713" s="1"/>
+    </row>
+    <row r="714">
+      <c r="E714" s="1"/>
+      <c r="F714" s="1"/>
+      <c r="G714" s="1"/>
+    </row>
+    <row r="715">
+      <c r="E715" s="1"/>
+      <c r="F715" s="1"/>
+      <c r="G715" s="1"/>
+    </row>
+    <row r="716">
+      <c r="E716" s="1"/>
+      <c r="F716" s="1"/>
+      <c r="G716" s="1"/>
+    </row>
+    <row r="717">
+      <c r="E717" s="1"/>
+      <c r="F717" s="1"/>
+      <c r="G717" s="1"/>
+    </row>
+    <row r="718">
+      <c r="E718" s="1"/>
+      <c r="F718" s="1"/>
+      <c r="G718" s="1"/>
+    </row>
+    <row r="719">
+      <c r="E719" s="1"/>
+      <c r="F719" s="1"/>
+      <c r="G719" s="1"/>
+    </row>
+    <row r="720">
+      <c r="E720" s="1"/>
+      <c r="F720" s="1"/>
+      <c r="G720" s="1"/>
+    </row>
+    <row r="721">
+      <c r="E721" s="1"/>
+      <c r="F721" s="1"/>
+      <c r="G721" s="1"/>
+    </row>
+    <row r="722">
+      <c r="E722" s="1"/>
+      <c r="F722" s="1"/>
+      <c r="G722" s="1"/>
+    </row>
+    <row r="723">
+      <c r="E723" s="1"/>
+      <c r="F723" s="1"/>
+      <c r="G723" s="1"/>
+    </row>
+    <row r="724">
+      <c r="E724" s="1"/>
+      <c r="F724" s="1"/>
+      <c r="G724" s="1"/>
+    </row>
+    <row r="725">
+      <c r="E725" s="1"/>
+      <c r="F725" s="1"/>
+      <c r="G725" s="1"/>
+    </row>
+    <row r="726">
+      <c r="E726" s="1"/>
+      <c r="F726" s="1"/>
+      <c r="G726" s="1"/>
+    </row>
+    <row r="727">
+      <c r="E727" s="1"/>
+      <c r="F727" s="1"/>
+      <c r="G727" s="1"/>
+    </row>
+    <row r="728">
+      <c r="E728" s="1"/>
+      <c r="F728" s="1"/>
+      <c r="G728" s="1"/>
+    </row>
+    <row r="729">
+      <c r="E729" s="1"/>
+      <c r="F729" s="1"/>
+      <c r="G729" s="1"/>
+    </row>
+    <row r="730">
+      <c r="E730" s="1"/>
+      <c r="F730" s="1"/>
+      <c r="G730" s="1"/>
+    </row>
+    <row r="731">
+      <c r="E731" s="1"/>
+      <c r="F731" s="1"/>
+      <c r="G731" s="1"/>
+    </row>
+    <row r="732">
+      <c r="E732" s="1"/>
+      <c r="F732" s="1"/>
+      <c r="G732" s="1"/>
+    </row>
+    <row r="733">
+      <c r="E733" s="1"/>
+      <c r="F733" s="1"/>
+      <c r="G733" s="1"/>
+    </row>
+    <row r="734">
+      <c r="E734" s="1"/>
+      <c r="F734" s="1"/>
+      <c r="G734" s="1"/>
+    </row>
+    <row r="735">
+      <c r="E735" s="1"/>
+      <c r="F735" s="1"/>
+      <c r="G735" s="1"/>
+    </row>
+    <row r="736">
+      <c r="E736" s="1"/>
+      <c r="F736" s="1"/>
+      <c r="G736" s="1"/>
+    </row>
+    <row r="737">
+      <c r="E737" s="1"/>
+      <c r="F737" s="1"/>
+      <c r="G737" s="1"/>
+    </row>
+    <row r="738">
+      <c r="E738" s="1"/>
+      <c r="F738" s="1"/>
+      <c r="G738" s="1"/>
+    </row>
+    <row r="739">
+      <c r="E739" s="1"/>
+      <c r="F739" s="1"/>
+      <c r="G739" s="1"/>
+    </row>
+    <row r="740">
+      <c r="E740" s="1"/>
+      <c r="F740" s="1"/>
+      <c r="G740" s="1"/>
+    </row>
+    <row r="741">
+      <c r="E741" s="1"/>
+      <c r="F741" s="1"/>
+      <c r="G741" s="1"/>
+    </row>
+    <row r="742">
+      <c r="E742" s="1"/>
+      <c r="F742" s="1"/>
+      <c r="G742" s="1"/>
+    </row>
+    <row r="743">
+      <c r="E743" s="1"/>
+      <c r="F743" s="1"/>
+      <c r="G743" s="1"/>
+    </row>
+    <row r="744">
+      <c r="E744" s="1"/>
+      <c r="F744" s="1"/>
+      <c r="G744" s="1"/>
+    </row>
+    <row r="745">
+      <c r="E745" s="1"/>
+      <c r="F745" s="1"/>
+      <c r="G745" s="1"/>
+    </row>
+    <row r="746">
+      <c r="E746" s="1"/>
+      <c r="F746" s="1"/>
+      <c r="G746" s="1"/>
+    </row>
+    <row r="747">
+      <c r="E747" s="1"/>
+      <c r="F747" s="1"/>
+      <c r="G747" s="1"/>
+    </row>
+    <row r="748">
+      <c r="E748" s="1"/>
+      <c r="F748" s="1"/>
+      <c r="G748" s="1"/>
+    </row>
+    <row r="749">
+      <c r="E749" s="1"/>
+      <c r="F749" s="1"/>
+      <c r="G749" s="1"/>
+    </row>
+    <row r="750">
+      <c r="E750" s="1"/>
+      <c r="F750" s="1"/>
+      <c r="G750" s="1"/>
+    </row>
+    <row r="751">
+      <c r="E751" s="1"/>
+      <c r="F751" s="1"/>
+      <c r="G751" s="1"/>
+    </row>
+    <row r="752">
+      <c r="E752" s="1"/>
+      <c r="F752" s="1"/>
+      <c r="G752" s="1"/>
+    </row>
+    <row r="753">
+      <c r="E753" s="1"/>
+      <c r="F753" s="1"/>
+      <c r="G753" s="1"/>
+    </row>
+    <row r="754">
+      <c r="E754" s="1"/>
+      <c r="F754" s="1"/>
+      <c r="G754" s="1"/>
+    </row>
+    <row r="755">
+      <c r="E755" s="1"/>
+      <c r="F755" s="1"/>
+      <c r="G755" s="1"/>
+    </row>
+    <row r="756">
+      <c r="E756" s="1"/>
+      <c r="F756" s="1"/>
+      <c r="G756" s="1"/>
+    </row>
+    <row r="757">
+      <c r="E757" s="1"/>
+      <c r="F757" s="1"/>
+      <c r="G757" s="1"/>
+    </row>
+    <row r="758">
+      <c r="E758" s="1"/>
+      <c r="F758" s="1"/>
+      <c r="G758" s="1"/>
+    </row>
+    <row r="759">
+      <c r="E759" s="1"/>
+      <c r="F759" s="1"/>
+      <c r="G759" s="1"/>
+    </row>
+    <row r="760">
+      <c r="E760" s="1"/>
+      <c r="F760" s="1"/>
+      <c r="G760" s="1"/>
+    </row>
+    <row r="761">
+      <c r="E761" s="1"/>
+      <c r="F761" s="1"/>
+      <c r="G761" s="1"/>
+    </row>
+    <row r="762">
+      <c r="E762" s="1"/>
+      <c r="F762" s="1"/>
+      <c r="G762" s="1"/>
+    </row>
+    <row r="763">
+      <c r="E763" s="1"/>
+      <c r="F763" s="1"/>
+      <c r="G763" s="1"/>
+    </row>
+    <row r="764">
+      <c r="E764" s="1"/>
+      <c r="F764" s="1"/>
+      <c r="G764" s="1"/>
+    </row>
+    <row r="765">
+      <c r="E765" s="1"/>
+      <c r="F765" s="1"/>
+      <c r="G765" s="1"/>
+    </row>
+    <row r="766">
+      <c r="E766" s="1"/>
+      <c r="F766" s="1"/>
+      <c r="G766" s="1"/>
+    </row>
+    <row r="767">
+      <c r="E767" s="1"/>
+      <c r="F767" s="1"/>
+      <c r="G767" s="1"/>
+    </row>
+    <row r="768">
+      <c r="E768" s="1"/>
+      <c r="F768" s="1"/>
+      <c r="G768" s="1"/>
+    </row>
+    <row r="769">
+      <c r="E769" s="1"/>
+      <c r="F769" s="1"/>
+      <c r="G769" s="1"/>
+    </row>
+    <row r="770">
+      <c r="E770" s="1"/>
+      <c r="F770" s="1"/>
+      <c r="G770" s="1"/>
+    </row>
+    <row r="771">
+      <c r="E771" s="1"/>
+      <c r="F771" s="1"/>
+      <c r="G771" s="1"/>
+    </row>
+    <row r="772">
+      <c r="E772" s="1"/>
+      <c r="F772" s="1"/>
+      <c r="G772" s="1"/>
+    </row>
+    <row r="773">
+      <c r="E773" s="1"/>
+      <c r="F773" s="1"/>
+      <c r="G773" s="1"/>
+    </row>
+    <row r="774">
+      <c r="E774" s="1"/>
+      <c r="F774" s="1"/>
+      <c r="G774" s="1"/>
+    </row>
+    <row r="775">
+      <c r="E775" s="1"/>
+      <c r="F775" s="1"/>
+      <c r="G775" s="1"/>
+    </row>
+    <row r="776">
+      <c r="E776" s="1"/>
+      <c r="F776" s="1"/>
+      <c r="G776" s="1"/>
+    </row>
+    <row r="777">
+      <c r="E777" s="1"/>
+      <c r="F777" s="1"/>
+      <c r="G777" s="1"/>
+    </row>
+    <row r="778">
+      <c r="E778" s="1"/>
+      <c r="F778" s="1"/>
+      <c r="G778" s="1"/>
+    </row>
+    <row r="779">
+      <c r="E779" s="1"/>
+      <c r="F779" s="1"/>
+      <c r="G779" s="1"/>
+    </row>
+    <row r="780">
+      <c r="E780" s="1"/>
+      <c r="F780" s="1"/>
+      <c r="G780" s="1"/>
+    </row>
+    <row r="781">
+      <c r="E781" s="1"/>
+      <c r="F781" s="1"/>
+      <c r="G781" s="1"/>
+    </row>
+    <row r="782">
+      <c r="E782" s="1"/>
+      <c r="F782" s="1"/>
+      <c r="G782" s="1"/>
+    </row>
+    <row r="783">
+      <c r="E783" s="1"/>
+      <c r="F783" s="1"/>
+      <c r="G783" s="1"/>
+    </row>
+    <row r="784">
+      <c r="E784" s="1"/>
+      <c r="F784" s="1"/>
+      <c r="G784" s="1"/>
+    </row>
+    <row r="785">
+      <c r="E785" s="1"/>
+      <c r="F785" s="1"/>
+      <c r="G785" s="1"/>
+    </row>
+    <row r="786">
+      <c r="E786" s="1"/>
+      <c r="F786" s="1"/>
+      <c r="G786" s="1"/>
+    </row>
+    <row r="787">
+      <c r="E787" s="1"/>
+      <c r="F787" s="1"/>
+      <c r="G787" s="1"/>
+    </row>
+    <row r="788">
+      <c r="E788" s="1"/>
+      <c r="F788" s="1"/>
+      <c r="G788" s="1"/>
+    </row>
+    <row r="789">
+      <c r="E789" s="1"/>
+      <c r="F789" s="1"/>
+      <c r="G789" s="1"/>
+    </row>
+    <row r="790">
+      <c r="E790" s="1"/>
+      <c r="F790" s="1"/>
+      <c r="G790" s="1"/>
+    </row>
+    <row r="791">
+      <c r="E791" s="1"/>
+      <c r="F791" s="1"/>
+      <c r="G791" s="1"/>
+    </row>
+    <row r="792">
+      <c r="E792" s="1"/>
+      <c r="F792" s="1"/>
+      <c r="G792" s="1"/>
+    </row>
+    <row r="793">
+      <c r="E793" s="1"/>
+      <c r="F793" s="1"/>
+      <c r="G793" s="1"/>
+    </row>
+    <row r="794">
+      <c r="E794" s="1"/>
+      <c r="F794" s="1"/>
+      <c r="G794" s="1"/>
+    </row>
+    <row r="795">
+      <c r="E795" s="1"/>
+      <c r="F795" s="1"/>
+      <c r="G795" s="1"/>
+    </row>
+    <row r="796">
+      <c r="E796" s="1"/>
+      <c r="F796" s="1"/>
+      <c r="G796" s="1"/>
+    </row>
+    <row r="797">
+      <c r="E797" s="1"/>
+      <c r="F797" s="1"/>
+      <c r="G797" s="1"/>
+    </row>
+    <row r="798">
+      <c r="E798" s="1"/>
+      <c r="F798" s="1"/>
+      <c r="G798" s="1"/>
+    </row>
+    <row r="799">
+      <c r="E799" s="1"/>
+      <c r="F799" s="1"/>
+      <c r="G799" s="1"/>
+    </row>
+    <row r="800">
+      <c r="E800" s="1"/>
+      <c r="F800" s="1"/>
+      <c r="G800" s="1"/>
+    </row>
+    <row r="801">
+      <c r="E801" s="1"/>
+      <c r="F801" s="1"/>
+      <c r="G801" s="1"/>
+    </row>
+    <row r="802">
+      <c r="E802" s="1"/>
+      <c r="F802" s="1"/>
+      <c r="G802" s="1"/>
+    </row>
+    <row r="803">
+      <c r="E803" s="1"/>
+      <c r="F803" s="1"/>
+      <c r="G803" s="1"/>
+    </row>
+    <row r="804">
+      <c r="E804" s="1"/>
+      <c r="F804" s="1"/>
+      <c r="G804" s="1"/>
+    </row>
+    <row r="805">
+      <c r="E805" s="1"/>
+      <c r="F805" s="1"/>
+      <c r="G805" s="1"/>
+    </row>
+    <row r="806">
+      <c r="E806" s="1"/>
+      <c r="F806" s="1"/>
+      <c r="G806" s="1"/>
+    </row>
+    <row r="807">
+      <c r="E807" s="1"/>
+      <c r="F807" s="1"/>
+      <c r="G807" s="1"/>
+    </row>
+    <row r="808">
+      <c r="E808" s="1"/>
+      <c r="F808" s="1"/>
+      <c r="G808" s="1"/>
+    </row>
+    <row r="809">
+      <c r="E809" s="1"/>
+      <c r="F809" s="1"/>
+      <c r="G809" s="1"/>
+    </row>
+    <row r="810">
+      <c r="E810" s="1"/>
+      <c r="F810" s="1"/>
+      <c r="G810" s="1"/>
+    </row>
+    <row r="811">
+      <c r="E811" s="1"/>
+      <c r="F811" s="1"/>
+      <c r="G811" s="1"/>
+    </row>
+    <row r="812">
+      <c r="E812" s="1"/>
+      <c r="F812" s="1"/>
+      <c r="G812" s="1"/>
+    </row>
+    <row r="813">
+      <c r="E813" s="1"/>
+      <c r="F813" s="1"/>
+      <c r="G813" s="1"/>
+    </row>
+    <row r="814">
+      <c r="E814" s="1"/>
+      <c r="F814" s="1"/>
+      <c r="G814" s="1"/>
+    </row>
+    <row r="815">
+      <c r="E815" s="1"/>
+      <c r="F815" s="1"/>
+      <c r="G815" s="1"/>
+    </row>
+    <row r="816">
+      <c r="E816" s="1"/>
+      <c r="F816" s="1"/>
+      <c r="G816" s="1"/>
+    </row>
+    <row r="817">
+      <c r="E817" s="1"/>
+      <c r="F817" s="1"/>
+      <c r="G817" s="1"/>
+    </row>
+    <row r="818">
+      <c r="E818" s="1"/>
+      <c r="F818" s="1"/>
+      <c r="G818" s="1"/>
+    </row>
+    <row r="819">
+      <c r="E819" s="1"/>
+      <c r="F819" s="1"/>
+      <c r="G819" s="1"/>
+    </row>
+    <row r="820">
+      <c r="E820" s="1"/>
+      <c r="F820" s="1"/>
+      <c r="G820" s="1"/>
+    </row>
+    <row r="821">
+      <c r="E821" s="1"/>
+      <c r="F821" s="1"/>
+      <c r="G821" s="1"/>
+    </row>
+    <row r="822">
+      <c r="E822" s="1"/>
+      <c r="F822" s="1"/>
+      <c r="G822" s="1"/>
+    </row>
+    <row r="823">
+      <c r="E823" s="1"/>
+      <c r="F823" s="1"/>
+      <c r="G823" s="1"/>
+    </row>
+    <row r="824">
+      <c r="E824" s="1"/>
+      <c r="F824" s="1"/>
+      <c r="G824" s="1"/>
+    </row>
+    <row r="825">
+      <c r="E825" s="1"/>
+      <c r="F825" s="1"/>
+      <c r="G825" s="1"/>
+    </row>
+    <row r="826">
+      <c r="E826" s="1"/>
+      <c r="F826" s="1"/>
+      <c r="G826" s="1"/>
+    </row>
+    <row r="827">
+      <c r="E827" s="1"/>
+      <c r="F827" s="1"/>
+      <c r="G827" s="1"/>
+    </row>
+    <row r="828">
+      <c r="E828" s="1"/>
+      <c r="F828" s="1"/>
+      <c r="G828" s="1"/>
+    </row>
+    <row r="829">
+      <c r="E829" s="1"/>
+      <c r="F829" s="1"/>
+      <c r="G829" s="1"/>
+    </row>
+    <row r="830">
+      <c r="E830" s="1"/>
+      <c r="F830" s="1"/>
+      <c r="G830" s="1"/>
+    </row>
+    <row r="831">
+      <c r="E831" s="1"/>
+      <c r="F831" s="1"/>
+      <c r="G831" s="1"/>
+    </row>
+    <row r="832">
+      <c r="E832" s="1"/>
+      <c r="F832" s="1"/>
+      <c r="G832" s="1"/>
+    </row>
+    <row r="833">
+      <c r="E833" s="1"/>
+      <c r="F833" s="1"/>
+      <c r="G833" s="1"/>
+    </row>
+    <row r="834">
+      <c r="E834" s="1"/>
+      <c r="F834" s="1"/>
+      <c r="G834" s="1"/>
+    </row>
+    <row r="835">
+      <c r="E835" s="1"/>
+      <c r="F835" s="1"/>
+      <c r="G835" s="1"/>
+    </row>
+    <row r="836">
+      <c r="E836" s="1"/>
+      <c r="F836" s="1"/>
+      <c r="G836" s="1"/>
+    </row>
+    <row r="837">
+      <c r="E837" s="1"/>
+      <c r="F837" s="1"/>
+      <c r="G837" s="1"/>
+    </row>
+    <row r="838">
+      <c r="E838" s="1"/>
+      <c r="F838" s="1"/>
+      <c r="G838" s="1"/>
+    </row>
+    <row r="839">
+      <c r="E839" s="1"/>
+      <c r="F839" s="1"/>
+      <c r="G839" s="1"/>
+    </row>
+    <row r="840">
+      <c r="E840" s="1"/>
+      <c r="F840" s="1"/>
+      <c r="G840" s="1"/>
+    </row>
+    <row r="841">
+      <c r="E841" s="1"/>
+      <c r="F841" s="1"/>
+      <c r="G841" s="1"/>
+    </row>
+    <row r="842">
+      <c r="E842" s="1"/>
+      <c r="F842" s="1"/>
+      <c r="G842" s="1"/>
+    </row>
+    <row r="843">
+      <c r="E843" s="1"/>
+      <c r="F843" s="1"/>
+      <c r="G843" s="1"/>
+    </row>
+    <row r="844">
+      <c r="E844" s="1"/>
+      <c r="F844" s="1"/>
+      <c r="G844" s="1"/>
+    </row>
+    <row r="845">
+      <c r="E845" s="1"/>
+      <c r="F845" s="1"/>
+      <c r="G845" s="1"/>
+    </row>
+    <row r="846">
+      <c r="E846" s="1"/>
+      <c r="F846" s="1"/>
+      <c r="G846" s="1"/>
+    </row>
+    <row r="847">
+      <c r="E847" s="1"/>
+      <c r="F847" s="1"/>
+      <c r="G847" s="1"/>
+    </row>
+    <row r="848">
+      <c r="E848" s="1"/>
+      <c r="F848" s="1"/>
+      <c r="G848" s="1"/>
+    </row>
+    <row r="849">
+      <c r="E849" s="1"/>
+      <c r="F849" s="1"/>
+      <c r="G849" s="1"/>
+    </row>
+    <row r="850">
+      <c r="E850" s="1"/>
+      <c r="F850" s="1"/>
+      <c r="G850" s="1"/>
+    </row>
+    <row r="851">
+      <c r="E851" s="1"/>
+      <c r="F851" s="1"/>
+      <c r="G851" s="1"/>
+    </row>
+    <row r="852">
+      <c r="E852" s="1"/>
+      <c r="F852" s="1"/>
+      <c r="G852" s="1"/>
+    </row>
+    <row r="853">
+      <c r="E853" s="1"/>
+      <c r="F853" s="1"/>
+      <c r="G853" s="1"/>
+    </row>
+    <row r="854">
+      <c r="E854" s="1"/>
+      <c r="F854" s="1"/>
+      <c r="G854" s="1"/>
+    </row>
+    <row r="855">
+      <c r="E855" s="1"/>
+      <c r="F855" s="1"/>
+      <c r="G855" s="1"/>
+    </row>
+    <row r="856">
+      <c r="E856" s="1"/>
+      <c r="F856" s="1"/>
+      <c r="G856" s="1"/>
+    </row>
+    <row r="857">
+      <c r="E857" s="1"/>
+      <c r="F857" s="1"/>
+      <c r="G857" s="1"/>
+    </row>
+    <row r="858">
+      <c r="E858" s="1"/>
+      <c r="F858" s="1"/>
+      <c r="G858" s="1"/>
+    </row>
+    <row r="859">
+      <c r="E859" s="1"/>
+      <c r="F859" s="1"/>
+      <c r="G859" s="1"/>
+    </row>
+    <row r="860">
+      <c r="E860" s="1"/>
+      <c r="F860" s="1"/>
+      <c r="G860" s="1"/>
+    </row>
+    <row r="861">
+      <c r="E861" s="1"/>
+      <c r="F861" s="1"/>
+      <c r="G861" s="1"/>
+    </row>
+    <row r="862">
+      <c r="E862" s="1"/>
+      <c r="F862" s="1"/>
+      <c r="G862" s="1"/>
+    </row>
+    <row r="863">
+      <c r="E863" s="1"/>
+      <c r="F863" s="1"/>
+      <c r="G863" s="1"/>
+    </row>
+    <row r="864">
+      <c r="E864" s="1"/>
+      <c r="F864" s="1"/>
+      <c r="G864" s="1"/>
+    </row>
+    <row r="865">
+      <c r="E865" s="1"/>
+      <c r="F865" s="1"/>
+      <c r="G865" s="1"/>
+    </row>
+    <row r="866">
+      <c r="E866" s="1"/>
+      <c r="F866" s="1"/>
+      <c r="G866" s="1"/>
+    </row>
+    <row r="867">
+      <c r="E867" s="1"/>
+      <c r="F867" s="1"/>
+      <c r="G867" s="1"/>
+    </row>
+    <row r="868">
+      <c r="E868" s="1"/>
+      <c r="F868" s="1"/>
+      <c r="G868" s="1"/>
+    </row>
+    <row r="869">
+      <c r="E869" s="1"/>
+      <c r="F869" s="1"/>
+      <c r="G869" s="1"/>
+    </row>
+    <row r="870">
+      <c r="E870" s="1"/>
+      <c r="F870" s="1"/>
+      <c r="G870" s="1"/>
+    </row>
+    <row r="871">
+      <c r="E871" s="1"/>
+      <c r="F871" s="1"/>
+      <c r="G871" s="1"/>
+    </row>
+    <row r="872">
+      <c r="E872" s="1"/>
+      <c r="F872" s="1"/>
+      <c r="G872" s="1"/>
+    </row>
+    <row r="873">
+      <c r="E873" s="1"/>
+      <c r="F873" s="1"/>
+      <c r="G873" s="1"/>
+    </row>
+    <row r="874">
+      <c r="E874" s="1"/>
+      <c r="F874" s="1"/>
+      <c r="G874" s="1"/>
+    </row>
+    <row r="875">
+      <c r="E875" s="1"/>
+      <c r="F875" s="1"/>
+      <c r="G875" s="1"/>
+    </row>
+    <row r="876">
+      <c r="E876" s="1"/>
+      <c r="F876" s="1"/>
+      <c r="G876" s="1"/>
+    </row>
+    <row r="877">
+      <c r="E877" s="1"/>
+      <c r="F877" s="1"/>
+      <c r="G877" s="1"/>
+    </row>
+    <row r="878">
+      <c r="E878" s="1"/>
+      <c r="F878" s="1"/>
+      <c r="G878" s="1"/>
+    </row>
+    <row r="879">
+      <c r="E879" s="1"/>
+      <c r="F879" s="1"/>
+      <c r="G879" s="1"/>
+    </row>
+    <row r="880">
+      <c r="E880" s="1"/>
+      <c r="F880" s="1"/>
+      <c r="G880" s="1"/>
+    </row>
+    <row r="881">
+      <c r="E881" s="1"/>
+      <c r="F881" s="1"/>
+      <c r="G881" s="1"/>
+    </row>
+    <row r="882">
+      <c r="E882" s="1"/>
+      <c r="F882" s="1"/>
+      <c r="G882" s="1"/>
+    </row>
+    <row r="883">
+      <c r="E883" s="1"/>
+      <c r="F883" s="1"/>
+      <c r="G883" s="1"/>
+    </row>
+    <row r="884">
+      <c r="E884" s="1"/>
+      <c r="F884" s="1"/>
+      <c r="G884" s="1"/>
+    </row>
+    <row r="885">
+      <c r="E885" s="1"/>
+      <c r="F885" s="1"/>
+      <c r="G885" s="1"/>
+    </row>
+    <row r="886">
+      <c r="E886" s="1"/>
+      <c r="F886" s="1"/>
+      <c r="G886" s="1"/>
+    </row>
+    <row r="887">
+      <c r="E887" s="1"/>
+      <c r="F887" s="1"/>
+      <c r="G887" s="1"/>
+    </row>
+    <row r="888">
+      <c r="E888" s="1"/>
+      <c r="F888" s="1"/>
+      <c r="G888" s="1"/>
+    </row>
+    <row r="889">
+      <c r="E889" s="1"/>
+      <c r="F889" s="1"/>
+      <c r="G889" s="1"/>
+    </row>
+    <row r="890">
+      <c r="E890" s="1"/>
+      <c r="F890" s="1"/>
+      <c r="G890" s="1"/>
+    </row>
+    <row r="891">
+      <c r="E891" s="1"/>
+      <c r="F891" s="1"/>
+      <c r="G891" s="1"/>
+    </row>
+    <row r="892">
+      <c r="E892" s="1"/>
+      <c r="F892" s="1"/>
+      <c r="G892" s="1"/>
+    </row>
+    <row r="893">
+      <c r="E893" s="1"/>
+      <c r="F893" s="1"/>
+      <c r="G893" s="1"/>
+    </row>
+    <row r="894">
+      <c r="E894" s="1"/>
+      <c r="F894" s="1"/>
+      <c r="G894" s="1"/>
+    </row>
+    <row r="895">
+      <c r="E895" s="1"/>
+      <c r="F895" s="1"/>
+      <c r="G895" s="1"/>
+    </row>
+    <row r="896">
+      <c r="E896" s="1"/>
+      <c r="F896" s="1"/>
+      <c r="G896" s="1"/>
+    </row>
+    <row r="897">
+      <c r="E897" s="1"/>
+      <c r="F897" s="1"/>
+      <c r="G897" s="1"/>
+    </row>
+    <row r="898">
+      <c r="E898" s="1"/>
+      <c r="F898" s="1"/>
+      <c r="G898" s="1"/>
+    </row>
+    <row r="899">
+      <c r="E899" s="1"/>
+      <c r="F899" s="1"/>
+      <c r="G899" s="1"/>
+    </row>
+    <row r="900">
+      <c r="E900" s="1"/>
+      <c r="F900" s="1"/>
+      <c r="G900" s="1"/>
+    </row>
+    <row r="901">
+      <c r="E901" s="1"/>
+      <c r="F901" s="1"/>
+      <c r="G901" s="1"/>
+    </row>
+    <row r="902">
+      <c r="E902" s="1"/>
+      <c r="F902" s="1"/>
+      <c r="G902" s="1"/>
+    </row>
+    <row r="903">
+      <c r="E903" s="1"/>
+      <c r="F903" s="1"/>
+      <c r="G903" s="1"/>
+    </row>
+    <row r="904">
+      <c r="E904" s="1"/>
+      <c r="F904" s="1"/>
+      <c r="G904" s="1"/>
+    </row>
+    <row r="905">
+      <c r="E905" s="1"/>
+      <c r="F905" s="1"/>
+      <c r="G905" s="1"/>
+    </row>
+    <row r="906">
+      <c r="E906" s="1"/>
+      <c r="F906" s="1"/>
+      <c r="G906" s="1"/>
+    </row>
+    <row r="907">
+      <c r="E907" s="1"/>
+      <c r="F907" s="1"/>
+      <c r="G907" s="1"/>
+    </row>
+    <row r="908">
+      <c r="E908" s="1"/>
+      <c r="F908" s="1"/>
+      <c r="G908" s="1"/>
+    </row>
+    <row r="909">
+      <c r="E909" s="1"/>
+      <c r="F909" s="1"/>
+      <c r="G909" s="1"/>
+    </row>
+    <row r="910">
+      <c r="E910" s="1"/>
+      <c r="F910" s="1"/>
+      <c r="G910" s="1"/>
+    </row>
+    <row r="911">
+      <c r="E911" s="1"/>
+      <c r="F911" s="1"/>
+      <c r="G911" s="1"/>
+    </row>
+    <row r="912">
+      <c r="E912" s="1"/>
+      <c r="F912" s="1"/>
+      <c r="G912" s="1"/>
+    </row>
+    <row r="913">
+      <c r="E913" s="1"/>
+      <c r="F913" s="1"/>
+      <c r="G913" s="1"/>
+    </row>
+    <row r="914">
+      <c r="E914" s="1"/>
+      <c r="F914" s="1"/>
+      <c r="G914" s="1"/>
+    </row>
+    <row r="915">
+      <c r="E915" s="1"/>
+      <c r="F915" s="1"/>
+      <c r="G915" s="1"/>
+    </row>
+    <row r="916">
+      <c r="E916" s="1"/>
+      <c r="F916" s="1"/>
+      <c r="G916" s="1"/>
+    </row>
+    <row r="917">
+      <c r="E917" s="1"/>
+      <c r="F917" s="1"/>
+      <c r="G917" s="1"/>
+    </row>
+    <row r="918">
+      <c r="E918" s="1"/>
+      <c r="F918" s="1"/>
+      <c r="G918" s="1"/>
+    </row>
+    <row r="919">
+      <c r="E919" s="1"/>
+      <c r="F919" s="1"/>
+      <c r="G919" s="1"/>
+    </row>
+    <row r="920">
+      <c r="E920" s="1"/>
+      <c r="F920" s="1"/>
+      <c r="G920" s="1"/>
+    </row>
+    <row r="921">
+      <c r="E921" s="1"/>
+      <c r="F921" s="1"/>
+      <c r="G921" s="1"/>
+    </row>
+    <row r="922">
+      <c r="E922" s="1"/>
+      <c r="F922" s="1"/>
+      <c r="G922" s="1"/>
+    </row>
+    <row r="923">
+      <c r="E923" s="1"/>
+      <c r="F923" s="1"/>
+      <c r="G923" s="1"/>
+    </row>
+    <row r="924">
+      <c r="E924" s="1"/>
+      <c r="F924" s="1"/>
+      <c r="G924" s="1"/>
+    </row>
+    <row r="925">
+      <c r="E925" s="1"/>
+      <c r="F925" s="1"/>
+      <c r="G925" s="1"/>
+    </row>
+    <row r="926">
+      <c r="E926" s="1"/>
+      <c r="F926" s="1"/>
+      <c r="G926" s="1"/>
+    </row>
+    <row r="927">
+      <c r="E927" s="1"/>
+      <c r="F927" s="1"/>
+      <c r="G927" s="1"/>
+    </row>
+    <row r="928">
+      <c r="E928" s="1"/>
+      <c r="F928" s="1"/>
+      <c r="G928" s="1"/>
+    </row>
+    <row r="929">
+      <c r="E929" s="1"/>
+      <c r="F929" s="1"/>
+      <c r="G929" s="1"/>
+    </row>
+    <row r="930">
+      <c r="E930" s="1"/>
+      <c r="F930" s="1"/>
+      <c r="G930" s="1"/>
+    </row>
+    <row r="931">
+      <c r="E931" s="1"/>
+      <c r="F931" s="1"/>
+      <c r="G931" s="1"/>
+    </row>
+    <row r="932">
+      <c r="E932" s="1"/>
+      <c r="F932" s="1"/>
+      <c r="G932" s="1"/>
+    </row>
+    <row r="933">
+      <c r="E933" s="1"/>
+      <c r="F933" s="1"/>
+      <c r="G933" s="1"/>
+    </row>
+    <row r="934">
+      <c r="E934" s="1"/>
+      <c r="F934" s="1"/>
+      <c r="G934" s="1"/>
+    </row>
+    <row r="935">
+      <c r="E935" s="1"/>
+      <c r="F935" s="1"/>
+      <c r="G935" s="1"/>
+    </row>
+    <row r="936">
+      <c r="E936" s="1"/>
+      <c r="F936" s="1"/>
+      <c r="G936" s="1"/>
+    </row>
+    <row r="937">
+      <c r="E937" s="1"/>
+      <c r="F937" s="1"/>
+      <c r="G937" s="1"/>
+    </row>
+    <row r="938">
+      <c r="E938" s="1"/>
+      <c r="F938" s="1"/>
+      <c r="G938" s="1"/>
+    </row>
+    <row r="939">
+      <c r="E939" s="1"/>
+      <c r="F939" s="1"/>
+      <c r="G939" s="1"/>
+    </row>
+    <row r="940">
+      <c r="E940" s="1"/>
+      <c r="F940" s="1"/>
+      <c r="G940" s="1"/>
+    </row>
+    <row r="941">
+      <c r="E941" s="1"/>
+      <c r="F941" s="1"/>
+      <c r="G941" s="1"/>
+    </row>
+    <row r="942">
+      <c r="E942" s="1"/>
+      <c r="F942" s="1"/>
+      <c r="G942" s="1"/>
+    </row>
+    <row r="943">
+      <c r="E943" s="1"/>
+      <c r="F943" s="1"/>
+      <c r="G943" s="1"/>
+    </row>
+    <row r="944">
+      <c r="E944" s="1"/>
+      <c r="F944" s="1"/>
+      <c r="G944" s="1"/>
+    </row>
+    <row r="945">
+      <c r="E945" s="1"/>
+      <c r="F945" s="1"/>
+      <c r="G945" s="1"/>
+    </row>
+    <row r="946">
+      <c r="E946" s="1"/>
+      <c r="F946" s="1"/>
+      <c r="G946" s="1"/>
+    </row>
+    <row r="947">
+      <c r="E947" s="1"/>
+      <c r="F947" s="1"/>
+      <c r="G947" s="1"/>
+    </row>
+    <row r="948">
+      <c r="E948" s="1"/>
+      <c r="F948" s="1"/>
+      <c r="G948" s="1"/>
+    </row>
+    <row r="949">
+      <c r="E949" s="1"/>
+      <c r="F949" s="1"/>
+      <c r="G949" s="1"/>
+    </row>
+    <row r="950">
+      <c r="E950" s="1"/>
+      <c r="F950" s="1"/>
+      <c r="G950" s="1"/>
+    </row>
+    <row r="951">
+      <c r="E951" s="1"/>
+      <c r="F951" s="1"/>
+      <c r="G951" s="1"/>
+    </row>
+    <row r="952">
+      <c r="E952" s="1"/>
+      <c r="F952" s="1"/>
+      <c r="G952" s="1"/>
+    </row>
+    <row r="953">
+      <c r="E953" s="1"/>
+      <c r="F953" s="1"/>
+      <c r="G953" s="1"/>
+    </row>
+    <row r="954">
+      <c r="E954" s="1"/>
+      <c r="F954" s="1"/>
+      <c r="G954" s="1"/>
+    </row>
+    <row r="955">
+      <c r="E955" s="1"/>
+      <c r="F955" s="1"/>
+      <c r="G955" s="1"/>
+    </row>
+    <row r="956">
+      <c r="E956" s="1"/>
+      <c r="F956" s="1"/>
+      <c r="G956" s="1"/>
+    </row>
+    <row r="957">
+      <c r="E957" s="1"/>
+      <c r="F957" s="1"/>
+      <c r="G957" s="1"/>
+    </row>
+    <row r="958">
+      <c r="E958" s="1"/>
+      <c r="F958" s="1"/>
+      <c r="G958" s="1"/>
+    </row>
+    <row r="959">
+      <c r="E959" s="1"/>
+      <c r="F959" s="1"/>
+      <c r="G959" s="1"/>
+    </row>
+    <row r="960">
+      <c r="E960" s="1"/>
+      <c r="F960" s="1"/>
+      <c r="G960" s="1"/>
+    </row>
+    <row r="961">
+      <c r="E961" s="1"/>
+      <c r="F961" s="1"/>
+      <c r="G961" s="1"/>
+    </row>
+    <row r="962">
+      <c r="E962" s="1"/>
+      <c r="F962" s="1"/>
+      <c r="G962" s="1"/>
+    </row>
+    <row r="963">
+      <c r="E963" s="1"/>
+      <c r="F963" s="1"/>
+      <c r="G963" s="1"/>
+    </row>
+    <row r="964">
+      <c r="E964" s="1"/>
+      <c r="F964" s="1"/>
+      <c r="G964" s="1"/>
+    </row>
+    <row r="965">
+      <c r="E965" s="1"/>
+      <c r="F965" s="1"/>
+      <c r="G965" s="1"/>
+    </row>
+    <row r="966">
+      <c r="E966" s="1"/>
+      <c r="F966" s="1"/>
+      <c r="G966" s="1"/>
+    </row>
+    <row r="967">
+      <c r="E967" s="1"/>
+      <c r="F967" s="1"/>
+      <c r="G967" s="1"/>
+    </row>
+    <row r="968">
+      <c r="E968" s="1"/>
+      <c r="F968" s="1"/>
+      <c r="G968" s="1"/>
+    </row>
+    <row r="969">
+      <c r="E969" s="1"/>
+      <c r="F969" s="1"/>
+      <c r="G969" s="1"/>
+    </row>
+    <row r="970">
+      <c r="E970" s="1"/>
+      <c r="F970" s="1"/>
+      <c r="G970" s="1"/>
+    </row>
+    <row r="971">
+      <c r="E971" s="1"/>
+      <c r="F971" s="1"/>
+      <c r="G971" s="1"/>
+    </row>
+    <row r="972">
+      <c r="E972" s="1"/>
+      <c r="F972" s="1"/>
+      <c r="G972" s="1"/>
+    </row>
+    <row r="973">
+      <c r="E973" s="1"/>
+      <c r="F973" s="1"/>
+      <c r="G973" s="1"/>
+    </row>
+    <row r="974">
+      <c r="E974" s="1"/>
+      <c r="F974" s="1"/>
+      <c r="G974" s="1"/>
+    </row>
+    <row r="975">
+      <c r="E975" s="1"/>
+      <c r="F975" s="1"/>
+      <c r="G975" s="1"/>
+    </row>
+    <row r="976">
+      <c r="E976" s="1"/>
+      <c r="F976" s="1"/>
+      <c r="G976" s="1"/>
+    </row>
+    <row r="977">
+      <c r="E977" s="1"/>
+      <c r="F977" s="1"/>
+      <c r="G977" s="1"/>
+    </row>
+    <row r="978">
+      <c r="E978" s="1"/>
+      <c r="F978" s="1"/>
+      <c r="G978" s="1"/>
+    </row>
+    <row r="979">
+      <c r="E979" s="1"/>
+      <c r="F979" s="1"/>
+      <c r="G979" s="1"/>
+    </row>
+    <row r="980">
+      <c r="E980" s="1"/>
+      <c r="F980" s="1"/>
+      <c r="G980" s="1"/>
+    </row>
+    <row r="981">
+      <c r="E981" s="1"/>
+      <c r="F981" s="1"/>
+      <c r="G981" s="1"/>
+    </row>
+    <row r="982">
+      <c r="E982" s="1"/>
+      <c r="F982" s="1"/>
+      <c r="G982" s="1"/>
+    </row>
+    <row r="983">
+      <c r="E983" s="1"/>
+      <c r="F983" s="1"/>
+      <c r="G983" s="1"/>
+    </row>
+    <row r="984">
+      <c r="E984" s="1"/>
+      <c r="F984" s="1"/>
+      <c r="G984" s="1"/>
+    </row>
+    <row r="985">
+      <c r="E985" s="1"/>
+      <c r="F985" s="1"/>
+      <c r="G985" s="1"/>
+    </row>
+    <row r="986">
+      <c r="E986" s="1"/>
+      <c r="F986" s="1"/>
+      <c r="G986" s="1"/>
+    </row>
+    <row r="987">
+      <c r="E987" s="1"/>
+      <c r="F987" s="1"/>
+      <c r="G987" s="1"/>
+    </row>
+    <row r="988">
+      <c r="E988" s="1"/>
+      <c r="F988" s="1"/>
+      <c r="G988" s="1"/>
+    </row>
+    <row r="989">
+      <c r="E989" s="1"/>
+      <c r="F989" s="1"/>
+      <c r="G989" s="1"/>
+    </row>
+    <row r="990">
+      <c r="E990" s="1"/>
+      <c r="F990" s="1"/>
+      <c r="G990" s="1"/>
+    </row>
+    <row r="991">
+      <c r="E991" s="1"/>
+      <c r="F991" s="1"/>
+      <c r="G991" s="1"/>
+    </row>
+    <row r="992">
+      <c r="E992" s="1"/>
+      <c r="F992" s="1"/>
+      <c r="G992" s="1"/>
+    </row>
+    <row r="993">
+      <c r="E993" s="1"/>
+      <c r="F993" s="1"/>
+      <c r="G993" s="1"/>
+    </row>
+    <row r="994">
+      <c r="E994" s="1"/>
+      <c r="F994" s="1"/>
+      <c r="G994" s="1"/>
+    </row>
+    <row r="995">
+      <c r="E995" s="1"/>
+      <c r="F995" s="1"/>
+      <c r="G995" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="I33:K33"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -6804,190 +12407,840 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="6" max="6" width="20.5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="M4" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="N4" s="12">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="E5" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="N5" s="13">
+        <f>N4*(-15.8)-3.14</f>
+        <v>-32.844</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="12">
+        <v>1.3</v>
+      </c>
+      <c r="B6" s="12">
+        <v>-20.0</v>
+      </c>
+      <c r="D6" s="12">
+        <v>1.3</v>
+      </c>
+      <c r="E6" s="12">
+        <v>-26.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="D7" s="12">
+        <v>1.4</v>
+      </c>
+      <c r="E7" s="12">
+        <v>-20.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="D8" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="E8" s="12">
+        <v>-25.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="12">
+        <v>1.55</v>
+      </c>
+      <c r="D9" s="12">
+        <v>1.6</v>
+      </c>
+      <c r="E9" s="12">
+        <v>-31.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="12">
+        <v>1.6</v>
+      </c>
+      <c r="D10" s="12">
+        <v>1.7</v>
+      </c>
+      <c r="E10" s="12">
+        <v>-31.5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="12">
+        <v>1.65</v>
+      </c>
+      <c r="D11" s="12">
+        <v>1.8</v>
+      </c>
+      <c r="E11" s="12">
+        <v>-31.75</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="12">
+        <v>1.745</v>
+      </c>
+      <c r="B12" s="12">
+        <v>-30.0</v>
+      </c>
+      <c r="D12" s="12">
+        <v>1.9</v>
+      </c>
+      <c r="E12" s="12">
+        <v>-32.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="13">
+        <f t="shared" ref="A13:A27" si="1">A12+12*0.0254</f>
+        <v>2.0498</v>
+      </c>
+      <c r="B13" s="12">
+        <v>-40.0</v>
+      </c>
+      <c r="D13" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="E13" s="12">
+        <v>-35.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="13">
+        <f t="shared" si="1"/>
+        <v>2.3546</v>
+      </c>
+      <c r="B14" s="12">
+        <v>39.5</v>
+      </c>
+      <c r="D14" s="12">
+        <v>2.1</v>
+      </c>
+      <c r="E14" s="12">
+        <v>-39.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="13">
+        <f t="shared" si="1"/>
+        <v>2.6594</v>
+      </c>
+      <c r="D15" s="12">
+        <v>2.2</v>
+      </c>
+      <c r="E15" s="12">
+        <v>-40.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="13">
+        <f t="shared" si="1"/>
+        <v>2.9642</v>
+      </c>
+      <c r="D16" s="12">
+        <v>2.54</v>
+      </c>
+      <c r="E16" s="12">
+        <v>-44.5</v>
+      </c>
+      <c r="F16" s="12">
+        <v>-44.5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="13">
+        <f t="shared" si="1"/>
+        <v>3.269</v>
+      </c>
+      <c r="D17" s="12">
+        <v>3.2</v>
+      </c>
+      <c r="E17" s="12">
+        <v>-50.5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="13">
+        <f t="shared" si="1"/>
+        <v>3.5738</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="13">
+        <f t="shared" si="1"/>
+        <v>3.8786</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="13">
+        <f t="shared" si="1"/>
+        <v>4.1834</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="13">
+        <f t="shared" si="1"/>
+        <v>4.4882</v>
+      </c>
+      <c r="E21" s="13">
+        <f t="shared" ref="E21:E22" si="2">D9</f>
+        <v>1.6</v>
+      </c>
+      <c r="F21" s="13">
+        <f t="shared" ref="F21:F29" si="3">6.72-27.1*D9+2.85*D9*D9</f>
+        <v>-29.344</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="13">
+        <f t="shared" si="1"/>
+        <v>4.793</v>
+      </c>
+      <c r="E22" s="13">
+        <f t="shared" si="2"/>
+        <v>1.7</v>
+      </c>
+      <c r="F22" s="13">
+        <f t="shared" si="3"/>
+        <v>-31.1135</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="13">
+        <f t="shared" si="1"/>
+        <v>5.0978</v>
+      </c>
+      <c r="E23" s="12">
+        <v>1.88</v>
+      </c>
+      <c r="F23" s="13">
+        <f t="shared" si="3"/>
+        <v>-32.826</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="13">
+        <f t="shared" si="1"/>
+        <v>5.4026</v>
+      </c>
+      <c r="E24" s="13">
+        <f t="shared" ref="E24:E30" si="4">D12</f>
+        <v>1.9</v>
+      </c>
+      <c r="F24" s="13">
+        <f t="shared" si="3"/>
+        <v>-34.4815</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="13">
+        <f t="shared" si="1"/>
+        <v>5.7074</v>
+      </c>
+      <c r="E25" s="13">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F25" s="13">
+        <f t="shared" si="3"/>
+        <v>-36.08</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="13">
+        <f t="shared" si="1"/>
+        <v>6.0122</v>
+      </c>
+      <c r="E26" s="13">
+        <f t="shared" si="4"/>
+        <v>2.1</v>
+      </c>
+      <c r="F26" s="13">
+        <f t="shared" si="3"/>
+        <v>-37.6215</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="13">
+        <f t="shared" si="1"/>
+        <v>6.317</v>
+      </c>
+      <c r="E27" s="13">
+        <f t="shared" si="4"/>
+        <v>2.2</v>
+      </c>
+      <c r="F27" s="13">
+        <f t="shared" si="3"/>
+        <v>-39.106</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="E28" s="13">
+        <f t="shared" si="4"/>
+        <v>2.54</v>
+      </c>
+      <c r="F28" s="13">
+        <f t="shared" si="3"/>
+        <v>-43.72694</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="E29" s="13">
+        <f t="shared" si="4"/>
+        <v>3.2</v>
+      </c>
+      <c r="F29" s="13">
+        <f t="shared" si="3"/>
+        <v>-50.816</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="E30" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="24.38"/>
+    <col customWidth="1" min="2" max="2" width="18.75"/>
+    <col customWidth="1" min="3" max="3" width="35.88"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
     <col customWidth="1" min="1" max="1" width="26.63"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>126</v>
+      <c r="A1" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="B2" s="16"/>
+      <c r="A2" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="18"/>
     </row>
     <row r="3">
-      <c r="A3" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="16"/>
+      <c r="A3" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="18"/>
     </row>
     <row r="4">
-      <c r="A4" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="B4" s="16"/>
+      <c r="A4" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="18"/>
     </row>
     <row r="5">
-      <c r="A5" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="B5" s="16"/>
+      <c r="A5" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="18"/>
     </row>
     <row r="6">
-      <c r="A6" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="B6" s="16"/>
+      <c r="A6" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="18"/>
     </row>
     <row r="7">
-      <c r="A7" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="B7" s="16"/>
+      <c r="A7" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="18"/>
     </row>
     <row r="8">
-      <c r="A8" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="B8" s="16"/>
+      <c r="A8" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="18"/>
     </row>
     <row r="9">
-      <c r="A9" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="B9" s="16"/>
+      <c r="A9" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="18"/>
     </row>
     <row r="10">
-      <c r="A10" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="B10" s="16"/>
+      <c r="A10" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" s="18"/>
     </row>
     <row r="11">
-      <c r="A11" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="B11" s="16"/>
+      <c r="A11" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" s="18"/>
     </row>
     <row r="12">
-      <c r="A12" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="B12" s="16"/>
+      <c r="A12" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" s="18"/>
     </row>
     <row r="13">
-      <c r="A13" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="B13" s="16"/>
+      <c r="A13" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" s="18"/>
     </row>
     <row r="14">
-      <c r="A14" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B14" s="16"/>
+      <c r="A14" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="B14" s="18"/>
     </row>
     <row r="15">
-      <c r="A15" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="B15" s="16"/>
+      <c r="A15" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="B15" s="18"/>
     </row>
     <row r="16">
-      <c r="A16" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="B16" s="16"/>
+      <c r="A16" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" s="18"/>
     </row>
     <row r="17">
-      <c r="A17" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="B17" s="16"/>
+      <c r="A17" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B17" s="18"/>
     </row>
     <row r="18">
-      <c r="A18" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="B18" s="16"/>
+      <c r="A18" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" s="18"/>
     </row>
     <row r="19">
-      <c r="A19" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="B19" s="16"/>
+      <c r="A19" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B19" s="18"/>
     </row>
     <row r="20">
-      <c r="A20" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="B20" s="16"/>
+      <c r="A20" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="B20" s="18"/>
     </row>
     <row r="21">
-      <c r="A21" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="B21" s="16"/>
+      <c r="A21" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="B21" s="18"/>
     </row>
     <row r="22">
-      <c r="A22" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="B22" s="16"/>
+      <c r="A22" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B22" s="18"/>
     </row>
     <row r="23">
-      <c r="A23" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="B23" s="16"/>
+      <c r="A23" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="B23" s="18"/>
     </row>
     <row r="24">
-      <c r="A24" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="B24" s="16"/>
+      <c r="A24" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="B24" s="18"/>
     </row>
     <row r="25">
-      <c r="A25" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="B25" s="16"/>
+      <c r="A25" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="B25" s="18"/>
     </row>
     <row r="26">
-      <c r="A26" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="B26" s="16"/>
+      <c r="A26" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="B26" s="18"/>
     </row>
     <row r="27">
-      <c r="A27" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="B27" s="16"/>
+      <c r="A27" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="B27" s="18"/>
     </row>
     <row r="28">
-      <c r="A28" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="B28" s="16"/>
+      <c r="A28" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="B28" s="18"/>
     </row>
     <row r="29">
-      <c r="A29" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="B29" s="16"/>
+      <c r="A29" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="B29" s="18"/>
     </row>
     <row r="30">
-      <c r="A30" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="B30" s="16"/>
+      <c r="A30" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="B30" s="18"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/CodeDocumentation/2024 Cresendo.xlsx
+++ b/CodeDocumentation/2024 Cresendo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="163">
   <si>
     <t>Note Managment</t>
   </si>
@@ -266,6 +266,9 @@
     <t>Practice Bot</t>
   </si>
   <si>
+    <t>Comp Bot</t>
+  </si>
+  <si>
     <t>Distance (m)</t>
   </si>
   <si>
@@ -273,12 +276,6 @@
   </si>
   <si>
     <t>distance</t>
-  </si>
-  <si>
-    <t>5:1</t>
-  </si>
-  <si>
-    <t>1:1</t>
   </si>
   <si>
     <t>angle</t>
@@ -773,11 +770,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1810185014"/>
-        <c:axId val="541479536"/>
+        <c:axId val="1117060003"/>
+        <c:axId val="310689654"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1810185014"/>
+        <c:axId val="1117060003"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -852,10 +849,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="541479536"/>
+        <c:crossAx val="310689654"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="541479536"/>
+        <c:axId val="310689654"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -930,7 +927,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1810185014"/>
+        <c:crossAx val="1117060003"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -12414,32 +12411,55 @@
       <c r="A1" s="11" t="s">
         <v>82</v>
       </c>
+      <c r="D1" s="11" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>84</v>
       </c>
+      <c r="E2" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="D3" s="12">
+        <v>3.25</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4">
+      <c r="D4" s="12">
+        <v>2.45</v>
+      </c>
+      <c r="E4" s="12">
+        <v>10.0</v>
+      </c>
       <c r="M4" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N4" s="12">
         <v>1.88</v>
       </c>
     </row>
     <row r="5">
-      <c r="E5" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="F5" s="12" t="s">
+      <c r="D5" s="12">
+        <v>1.74</v>
+      </c>
+      <c r="E5" s="12">
+        <v>19.0</v>
+      </c>
+      <c r="M5" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>88</v>
       </c>
       <c r="N5" s="13">
         <f>N4*(-15.8)-3.14</f>
@@ -12447,295 +12467,17 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="12">
-        <v>1.3</v>
-      </c>
-      <c r="B6" s="12">
-        <v>-20.0</v>
-      </c>
       <c r="D6" s="12">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="E6" s="12">
-        <v>-26.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="D7" s="12">
-        <v>1.4</v>
-      </c>
-      <c r="E7" s="12">
-        <v>-20.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="D8" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="E8" s="12">
-        <v>-25.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="12">
-        <v>1.55</v>
-      </c>
-      <c r="D9" s="12">
-        <v>1.6</v>
-      </c>
-      <c r="E9" s="12">
-        <v>-31.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="12">
-        <v>1.6</v>
-      </c>
-      <c r="D10" s="12">
-        <v>1.7</v>
-      </c>
-      <c r="E10" s="12">
-        <v>-31.5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="12">
-        <v>1.65</v>
-      </c>
-      <c r="D11" s="12">
-        <v>1.8</v>
-      </c>
-      <c r="E11" s="12">
-        <v>-31.75</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="12">
-        <v>1.745</v>
-      </c>
-      <c r="B12" s="12">
-        <v>-30.0</v>
-      </c>
-      <c r="D12" s="12">
-        <v>1.9</v>
-      </c>
-      <c r="E12" s="12">
-        <v>-32.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="13">
-        <f t="shared" ref="A13:A27" si="1">A12+12*0.0254</f>
-        <v>2.0498</v>
-      </c>
-      <c r="B13" s="12">
-        <v>-40.0</v>
-      </c>
-      <c r="D13" s="12">
-        <v>2.0</v>
-      </c>
-      <c r="E13" s="12">
-        <v>-35.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="13">
-        <f t="shared" si="1"/>
-        <v>2.3546</v>
-      </c>
-      <c r="B14" s="12">
-        <v>39.5</v>
-      </c>
-      <c r="D14" s="12">
-        <v>2.1</v>
-      </c>
-      <c r="E14" s="12">
-        <v>-39.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="13">
-        <f t="shared" si="1"/>
-        <v>2.6594</v>
-      </c>
-      <c r="D15" s="12">
-        <v>2.2</v>
-      </c>
-      <c r="E15" s="12">
-        <v>-40.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="13">
-        <f t="shared" si="1"/>
-        <v>2.9642</v>
-      </c>
-      <c r="D16" s="12">
-        <v>2.54</v>
-      </c>
-      <c r="E16" s="12">
-        <v>-44.5</v>
-      </c>
-      <c r="F16" s="12">
-        <v>-44.5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="13">
-        <f t="shared" si="1"/>
-        <v>3.269</v>
-      </c>
-      <c r="D17" s="12">
-        <v>3.2</v>
-      </c>
-      <c r="E17" s="12">
-        <v>-50.5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="13">
-        <f t="shared" si="1"/>
-        <v>3.5738</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="13">
-        <f t="shared" si="1"/>
-        <v>3.8786</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="13">
-        <f t="shared" si="1"/>
-        <v>4.1834</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="13">
-        <f t="shared" si="1"/>
-        <v>4.4882</v>
-      </c>
-      <c r="E21" s="13">
-        <f t="shared" ref="E21:E22" si="2">D9</f>
-        <v>1.6</v>
-      </c>
-      <c r="F21" s="13">
-        <f t="shared" ref="F21:F29" si="3">6.72-27.1*D9+2.85*D9*D9</f>
-        <v>-29.344</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="13">
-        <f t="shared" si="1"/>
-        <v>4.793</v>
-      </c>
-      <c r="E22" s="13">
-        <f t="shared" si="2"/>
-        <v>1.7</v>
-      </c>
-      <c r="F22" s="13">
-        <f t="shared" si="3"/>
-        <v>-31.1135</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="13">
-        <f t="shared" si="1"/>
-        <v>5.0978</v>
-      </c>
-      <c r="E23" s="12">
-        <v>1.88</v>
-      </c>
-      <c r="F23" s="13">
-        <f t="shared" si="3"/>
-        <v>-32.826</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="13">
-        <f t="shared" si="1"/>
-        <v>5.4026</v>
-      </c>
-      <c r="E24" s="13">
-        <f t="shared" ref="E24:E30" si="4">D12</f>
-        <v>1.9</v>
-      </c>
-      <c r="F24" s="13">
-        <f t="shared" si="3"/>
-        <v>-34.4815</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="13">
-        <f t="shared" si="1"/>
-        <v>5.7074</v>
-      </c>
-      <c r="E25" s="13">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="F25" s="13">
-        <f t="shared" si="3"/>
-        <v>-36.08</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="13">
-        <f t="shared" si="1"/>
-        <v>6.0122</v>
-      </c>
-      <c r="E26" s="13">
-        <f t="shared" si="4"/>
-        <v>2.1</v>
-      </c>
-      <c r="F26" s="13">
-        <f t="shared" si="3"/>
-        <v>-37.6215</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="13">
-        <f t="shared" si="1"/>
-        <v>6.317</v>
-      </c>
-      <c r="E27" s="13">
-        <f t="shared" si="4"/>
-        <v>2.2</v>
-      </c>
-      <c r="F27" s="13">
-        <f t="shared" si="3"/>
-        <v>-39.106</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="E28" s="13">
-        <f t="shared" si="4"/>
-        <v>2.54</v>
-      </c>
-      <c r="F28" s="13">
-        <f t="shared" si="3"/>
-        <v>-43.72694</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="E29" s="13">
-        <f t="shared" si="4"/>
-        <v>3.2</v>
-      </c>
-      <c r="F29" s="13">
-        <f t="shared" si="3"/>
-        <v>-50.816</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="E30" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <v>35.0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -12758,277 +12500,277 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="C2" s="14" t="s">
         <v>93</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>95</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>97</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>100</v>
-      </c>
       <c r="C5" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>102</v>
-      </c>
       <c r="C6" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>103</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>105</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>107</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>109</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>114</v>
-      </c>
       <c r="C13" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>117</v>
-      </c>
       <c r="C15" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>119</v>
-      </c>
       <c r="C16" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>121</v>
-      </c>
       <c r="C17" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>123</v>
-      </c>
       <c r="C18" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>125</v>
-      </c>
       <c r="C19" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>127</v>
-      </c>
       <c r="C20" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="14" t="s">
         <v>132</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="26">
@@ -13036,10 +12778,10 @@
         <v>30</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -13062,183 +12804,183 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>134</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B2" s="18"/>
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" s="18"/>
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B4" s="18"/>
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B5" s="18"/>
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B6" s="18"/>
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B7" s="18"/>
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B8" s="18"/>
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B9" s="18"/>
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B10" s="18"/>
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B11" s="18"/>
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B12" s="18"/>
     </row>
     <row r="13">
       <c r="A13" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B13" s="18"/>
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B14" s="18"/>
     </row>
     <row r="15">
       <c r="A15" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B15" s="18"/>
     </row>
     <row r="16">
       <c r="A16" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B16" s="18"/>
     </row>
     <row r="17">
       <c r="A17" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B17" s="18"/>
     </row>
     <row r="18">
       <c r="A18" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B18" s="18"/>
     </row>
     <row r="19">
       <c r="A19" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B19" s="18"/>
     </row>
     <row r="20">
       <c r="A20" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B20" s="18"/>
     </row>
     <row r="21">
       <c r="A21" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B21" s="18"/>
     </row>
     <row r="22">
       <c r="A22" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B22" s="18"/>
     </row>
     <row r="23">
       <c r="A23" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B23" s="18"/>
     </row>
     <row r="24">
       <c r="A24" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B24" s="18"/>
     </row>
     <row r="25">
       <c r="A25" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B25" s="18"/>
     </row>
     <row r="26">
       <c r="A26" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B26" s="18"/>
     </row>
     <row r="27">
       <c r="A27" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B27" s="18"/>
     </row>
     <row r="28">
       <c r="A28" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B28" s="18"/>
     </row>
     <row r="29">
       <c r="A29" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B29" s="18"/>
     </row>
     <row r="30">
       <c r="A30" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B30" s="18"/>
     </row>

--- a/CodeDocumentation/2024 Cresendo.xlsx
+++ b/CodeDocumentation/2024 Cresendo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="164">
   <si>
     <t>Note Managment</t>
   </si>
@@ -266,9 +266,6 @@
     <t>Practice Bot</t>
   </si>
   <si>
-    <t>Comp Bot</t>
-  </si>
-  <si>
     <t>Distance (m)</t>
   </si>
   <si>
@@ -276,6 +273,12 @@
   </si>
   <si>
     <t>distance</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>1:1</t>
   </si>
   <si>
     <t>angle</t>
@@ -770,11 +773,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1117060003"/>
-        <c:axId val="310689654"/>
+        <c:axId val="1810185014"/>
+        <c:axId val="541479536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1117060003"/>
+        <c:axId val="1810185014"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -849,10 +852,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="310689654"/>
+        <c:crossAx val="541479536"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="310689654"/>
+        <c:axId val="541479536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -927,7 +930,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1117060003"/>
+        <c:crossAx val="1810185014"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -12411,55 +12414,32 @@
       <c r="A1" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>83</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="11" t="s">
+    </row>
+    <row r="4">
+      <c r="M4" s="12" t="s">
         <v>85</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="D3" s="12">
-        <v>3.25</v>
-      </c>
-      <c r="E3" s="12">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="D4" s="12">
-        <v>2.45</v>
-      </c>
-      <c r="E4" s="12">
-        <v>10.0</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>86</v>
       </c>
       <c r="N4" s="12">
         <v>1.88</v>
       </c>
     </row>
     <row r="5">
-      <c r="D5" s="12">
-        <v>1.74</v>
-      </c>
-      <c r="E5" s="12">
-        <v>19.0</v>
+      <c r="E5" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N5" s="13">
         <f>N4*(-15.8)-3.14</f>
@@ -12467,17 +12447,295 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" s="12">
+        <v>1.3</v>
+      </c>
+      <c r="B6" s="12">
+        <v>-20.0</v>
+      </c>
       <c r="D6" s="12">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="E6" s="12">
-        <v>35.0</v>
+        <v>-26.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="D7" s="12">
+        <v>1.4</v>
+      </c>
+      <c r="E7" s="12">
+        <v>-20.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="D8" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="E8" s="12">
+        <v>-25.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="12">
+        <v>1.55</v>
+      </c>
+      <c r="D9" s="12">
+        <v>1.6</v>
+      </c>
+      <c r="E9" s="12">
+        <v>-31.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="12">
+        <v>1.6</v>
+      </c>
+      <c r="D10" s="12">
+        <v>1.7</v>
+      </c>
+      <c r="E10" s="12">
+        <v>-31.5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="12">
+        <v>1.65</v>
+      </c>
+      <c r="D11" s="12">
+        <v>1.8</v>
+      </c>
+      <c r="E11" s="12">
+        <v>-31.75</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="12">
+        <v>1.745</v>
+      </c>
+      <c r="B12" s="12">
+        <v>-30.0</v>
+      </c>
+      <c r="D12" s="12">
+        <v>1.9</v>
+      </c>
+      <c r="E12" s="12">
+        <v>-32.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="13">
+        <f t="shared" ref="A13:A27" si="1">A12+12*0.0254</f>
+        <v>2.0498</v>
+      </c>
+      <c r="B13" s="12">
+        <v>-40.0</v>
+      </c>
+      <c r="D13" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="E13" s="12">
+        <v>-35.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="13">
+        <f t="shared" si="1"/>
+        <v>2.3546</v>
+      </c>
+      <c r="B14" s="12">
+        <v>39.5</v>
+      </c>
+      <c r="D14" s="12">
+        <v>2.1</v>
+      </c>
+      <c r="E14" s="12">
+        <v>-39.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="13">
+        <f t="shared" si="1"/>
+        <v>2.6594</v>
+      </c>
+      <c r="D15" s="12">
+        <v>2.2</v>
+      </c>
+      <c r="E15" s="12">
+        <v>-40.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="13">
+        <f t="shared" si="1"/>
+        <v>2.9642</v>
+      </c>
+      <c r="D16" s="12">
+        <v>2.54</v>
+      </c>
+      <c r="E16" s="12">
+        <v>-44.5</v>
+      </c>
+      <c r="F16" s="12">
+        <v>-44.5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="13">
+        <f t="shared" si="1"/>
+        <v>3.269</v>
+      </c>
+      <c r="D17" s="12">
+        <v>3.2</v>
+      </c>
+      <c r="E17" s="12">
+        <v>-50.5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="13">
+        <f t="shared" si="1"/>
+        <v>3.5738</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="13">
+        <f t="shared" si="1"/>
+        <v>3.8786</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="13">
+        <f t="shared" si="1"/>
+        <v>4.1834</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="13">
+        <f t="shared" si="1"/>
+        <v>4.4882</v>
+      </c>
+      <c r="E21" s="13">
+        <f t="shared" ref="E21:E22" si="2">D9</f>
+        <v>1.6</v>
+      </c>
+      <c r="F21" s="13">
+        <f t="shared" ref="F21:F29" si="3">6.72-27.1*D9+2.85*D9*D9</f>
+        <v>-29.344</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="13">
+        <f t="shared" si="1"/>
+        <v>4.793</v>
+      </c>
+      <c r="E22" s="13">
+        <f t="shared" si="2"/>
+        <v>1.7</v>
+      </c>
+      <c r="F22" s="13">
+        <f t="shared" si="3"/>
+        <v>-31.1135</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="13">
+        <f t="shared" si="1"/>
+        <v>5.0978</v>
+      </c>
+      <c r="E23" s="12">
+        <v>1.88</v>
+      </c>
+      <c r="F23" s="13">
+        <f t="shared" si="3"/>
+        <v>-32.826</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="13">
+        <f t="shared" si="1"/>
+        <v>5.4026</v>
+      </c>
+      <c r="E24" s="13">
+        <f t="shared" ref="E24:E30" si="4">D12</f>
+        <v>1.9</v>
+      </c>
+      <c r="F24" s="13">
+        <f t="shared" si="3"/>
+        <v>-34.4815</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="13">
+        <f t="shared" si="1"/>
+        <v>5.7074</v>
+      </c>
+      <c r="E25" s="13">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F25" s="13">
+        <f t="shared" si="3"/>
+        <v>-36.08</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="13">
+        <f t="shared" si="1"/>
+        <v>6.0122</v>
+      </c>
+      <c r="E26" s="13">
+        <f t="shared" si="4"/>
+        <v>2.1</v>
+      </c>
+      <c r="F26" s="13">
+        <f t="shared" si="3"/>
+        <v>-37.6215</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="13">
+        <f t="shared" si="1"/>
+        <v>6.317</v>
+      </c>
+      <c r="E27" s="13">
+        <f t="shared" si="4"/>
+        <v>2.2</v>
+      </c>
+      <c r="F27" s="13">
+        <f t="shared" si="3"/>
+        <v>-39.106</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="E28" s="13">
+        <f t="shared" si="4"/>
+        <v>2.54</v>
+      </c>
+      <c r="F28" s="13">
+        <f t="shared" si="3"/>
+        <v>-43.72694</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="E29" s="13">
+        <f t="shared" si="4"/>
+        <v>3.2</v>
+      </c>
+      <c r="F29" s="13">
+        <f t="shared" si="3"/>
+        <v>-50.816</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="E30" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -12500,277 +12758,277 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26">
@@ -12778,10 +13036,10 @@
         <v>30</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -12804,183 +13062,183 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B2" s="18"/>
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B3" s="18"/>
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B4" s="18"/>
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B5" s="18"/>
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B6" s="18"/>
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B7" s="18"/>
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B8" s="18"/>
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B9" s="18"/>
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B10" s="18"/>
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B11" s="18"/>
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B12" s="18"/>
     </row>
     <row r="13">
       <c r="A13" s="19" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B13" s="18"/>
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B14" s="18"/>
     </row>
     <row r="15">
       <c r="A15" s="17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B15" s="18"/>
     </row>
     <row r="16">
       <c r="A16" s="17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B16" s="18"/>
     </row>
     <row r="17">
       <c r="A17" s="17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B17" s="18"/>
     </row>
     <row r="18">
       <c r="A18" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B18" s="18"/>
     </row>
     <row r="19">
       <c r="A19" s="17" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B19" s="18"/>
     </row>
     <row r="20">
       <c r="A20" s="17" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B20" s="18"/>
     </row>
     <row r="21">
       <c r="A21" s="17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B21" s="18"/>
     </row>
     <row r="22">
       <c r="A22" s="17" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B22" s="18"/>
     </row>
     <row r="23">
       <c r="A23" s="17" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B23" s="18"/>
     </row>
     <row r="24">
       <c r="A24" s="20" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B24" s="18"/>
     </row>
     <row r="25">
       <c r="A25" s="20" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B25" s="18"/>
     </row>
     <row r="26">
       <c r="A26" s="19" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B26" s="18"/>
     </row>
     <row r="27">
       <c r="A27" s="17" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B27" s="18"/>
     </row>
     <row r="28">
       <c r="A28" s="17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B28" s="18"/>
     </row>
     <row r="29">
       <c r="A29" s="21" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B29" s="18"/>
     </row>
     <row r="30">
       <c r="A30" s="22" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B30" s="18"/>
     </row>

--- a/CodeDocumentation/2024 Cresendo.xlsx
+++ b/CodeDocumentation/2024 Cresendo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MZS5XJ\Documents\FRC\2024Crescendo\CodeDocumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F4C702-C8F2-46AB-AA8C-9E0C62C99BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D74E29-330B-403A-9A75-4B48041148E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="345" windowWidth="22545" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pratice Bot Config" sheetId="1" r:id="rId1"/>
@@ -772,15 +772,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -804,6 +795,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1358,20 +1358,20 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="2:12" ht="12.75">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="22"/>
-      <c r="I3" s="20" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
+      <c r="I3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="22"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="31"/>
     </row>
     <row r="4" spans="2:12" ht="12.75">
       <c r="B4" s="2" t="s">
@@ -1746,19 +1746,19 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="2:11" ht="12.75">
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="22"/>
-      <c r="I20" s="20" t="s">
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="31"/>
+      <c r="I20" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="J20" s="21"/>
-      <c r="K20" s="22"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="31"/>
     </row>
     <row r="21" spans="2:11" ht="12.75">
       <c r="B21" s="2" t="s">
@@ -2005,19 +2005,19 @@
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="2:11" ht="12.75">
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="22"/>
-      <c r="I33" s="20" t="s">
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="31"/>
+      <c r="I33" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="J33" s="21"/>
-      <c r="K33" s="22"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="31"/>
     </row>
     <row r="34" spans="2:11" ht="12.75">
       <c r="B34" s="2" t="s">
@@ -6932,7 +6932,7 @@
   <dimension ref="B1:L995"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -6947,7 +6947,7 @@
     <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6962,20 +6962,20 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="2:12">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="22"/>
-      <c r="I3" s="20" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
+      <c r="I3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="22"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="31"/>
     </row>
     <row r="4" spans="2:12">
       <c r="B4" s="2" t="s">
@@ -7188,16 +7188,16 @@
       <c r="G10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="25" t="s">
+      <c r="I10" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="J10" s="25" t="s">
+      <c r="J10" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="25" t="s">
+      <c r="K10" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="26">
+      <c r="L10" s="21">
         <v>6</v>
       </c>
     </row>
@@ -7220,16 +7220,16 @@
       <c r="G11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="27" t="s">
+      <c r="I11" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="J11" s="27" t="s">
+      <c r="J11" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="27" t="s">
+      <c r="K11" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="L11" s="28">
+      <c r="L11" s="23">
         <v>7</v>
       </c>
     </row>
@@ -7252,16 +7252,16 @@
       <c r="G12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="27" t="s">
+      <c r="I12" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="J12" s="29" t="s">
+      <c r="J12" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="K12" s="27" t="s">
+      <c r="K12" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="L12" s="30"/>
+      <c r="L12" s="25"/>
     </row>
     <row r="13" spans="2:12">
       <c r="B13" s="4" t="s">
@@ -7282,16 +7282,16 @@
       <c r="G13" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="I13" s="27" t="s">
+      <c r="I13" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="J13" s="29" t="s">
+      <c r="J13" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="K13" s="27" t="s">
+      <c r="K13" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="L13" s="30"/>
+      <c r="L13" s="25"/>
     </row>
     <row r="14" spans="2:12">
       <c r="B14" s="1"/>
@@ -7300,16 +7300,16 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="I14" s="27" t="s">
+      <c r="I14" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="J14" s="29" t="s">
+      <c r="J14" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="K14" s="27" t="s">
+      <c r="K14" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="L14" s="30"/>
+      <c r="L14" s="25"/>
     </row>
     <row r="15" spans="2:12">
       <c r="B15" s="1"/>
@@ -7318,31 +7318,31 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="I15" s="27" t="s">
+      <c r="I15" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="J15" s="29" t="s">
+      <c r="J15" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="K15" s="27" t="s">
+      <c r="K15" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="L15" s="30"/>
+      <c r="L15" s="25"/>
     </row>
     <row r="16" spans="2:12">
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="I16" s="29" t="s">
+      <c r="I16" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="J16" s="31" t="s">
+      <c r="J16" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="K16" s="32" t="s">
+      <c r="K16" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="L16" s="33"/>
+      <c r="L16" s="28"/>
     </row>
     <row r="17" spans="2:11">
       <c r="E17" s="1"/>
@@ -7360,19 +7360,19 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="22"/>
-      <c r="I20" s="20" t="s">
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="31"/>
+      <c r="I20" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="J20" s="21"/>
-      <c r="K20" s="22"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="31"/>
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="2" t="s">
@@ -7615,19 +7615,19 @@
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="2:11">
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="22"/>
-      <c r="I33" s="20" t="s">
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="31"/>
+      <c r="I33" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="J33" s="21"/>
-      <c r="K33" s="22"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="31"/>
     </row>
     <row r="34" spans="2:11">
       <c r="B34" s="2" t="s">
@@ -12549,14 +12549,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="D1" s="23" t="s">
+      <c r="B1" s="33"/>
+      <c r="D1" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="24"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="8" t="s">
@@ -12958,175 +12958,175 @@
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="14" t="s">
         <v>135</v>
       </c>
       <c r="B2" s="15"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="14.25">
       <c r="A3" s="14" t="s">
         <v>91</v>
       </c>
       <c r="B3" s="15"/>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="14.25">
       <c r="A4" s="14" t="s">
         <v>136</v>
       </c>
       <c r="B4" s="15"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="14.25">
       <c r="A5" s="14" t="s">
         <v>137</v>
       </c>
       <c r="B5" s="15"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" ht="14.25">
       <c r="A6" s="14" t="s">
         <v>138</v>
       </c>
       <c r="B6" s="15"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" ht="14.25">
       <c r="A7" s="14" t="s">
         <v>139</v>
       </c>
       <c r="B7" s="15"/>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="14.25">
       <c r="A8" s="14" t="s">
         <v>140</v>
       </c>
       <c r="B8" s="15"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="14.25">
       <c r="A9" s="14" t="s">
         <v>141</v>
       </c>
       <c r="B9" s="15"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" ht="14.25">
       <c r="A10" s="14" t="s">
         <v>142</v>
       </c>
       <c r="B10" s="15"/>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" ht="14.25">
       <c r="A11" s="14" t="s">
         <v>143</v>
       </c>
       <c r="B11" s="15"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="14.25">
       <c r="A12" s="14" t="s">
         <v>144</v>
       </c>
       <c r="B12" s="15"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" ht="14.25">
       <c r="A13" s="16" t="s">
         <v>145</v>
       </c>
       <c r="B13" s="15"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" ht="14.25">
       <c r="A14" s="14" t="s">
         <v>146</v>
       </c>
       <c r="B14" s="15"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" ht="14.25">
       <c r="A15" s="14" t="s">
         <v>147</v>
       </c>
       <c r="B15" s="15"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" ht="14.25">
       <c r="A16" s="14" t="s">
         <v>148</v>
       </c>
       <c r="B16" s="15"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" ht="14.25">
       <c r="A17" s="14" t="s">
         <v>149</v>
       </c>
       <c r="B17" s="15"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" ht="14.25">
       <c r="A18" s="14" t="s">
         <v>150</v>
       </c>
       <c r="B18" s="15"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" ht="14.25">
       <c r="A19" s="14" t="s">
         <v>151</v>
       </c>
       <c r="B19" s="15"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" ht="14.25">
       <c r="A20" s="14" t="s">
         <v>152</v>
       </c>
       <c r="B20" s="15"/>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" ht="14.25">
       <c r="A21" s="14" t="s">
         <v>153</v>
       </c>
       <c r="B21" s="15"/>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" ht="14.25">
       <c r="A22" s="14" t="s">
         <v>154</v>
       </c>
       <c r="B22" s="15"/>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" ht="14.25">
       <c r="A23" s="14" t="s">
         <v>155</v>
       </c>
       <c r="B23" s="15"/>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" ht="14.25">
       <c r="A24" s="17" t="s">
         <v>156</v>
       </c>
       <c r="B24" s="15"/>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" ht="14.25">
       <c r="A25" s="17" t="s">
         <v>157</v>
       </c>
       <c r="B25" s="15"/>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" ht="14.25">
       <c r="A26" s="16" t="s">
         <v>158</v>
       </c>
       <c r="B26" s="15"/>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" ht="14.25">
       <c r="A27" s="14" t="s">
         <v>159</v>
       </c>
       <c r="B27" s="15"/>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" ht="14.25">
       <c r="A28" s="14" t="s">
         <v>160</v>
       </c>
       <c r="B28" s="15"/>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" ht="14.25">
       <c r="A29" s="18" t="s">
         <v>161</v>
       </c>
       <c r="B29" s="15"/>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" ht="14.25">
       <c r="A30" s="19" t="s">
         <v>162</v>
       </c>
